--- a/docs/memorias coletivas base dados.xlsx
+++ b/docs/memorias coletivas base dados.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4114" uniqueCount="2189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4115" uniqueCount="2189">
   <si>
     <t>legenda</t>
   </si>
@@ -7083,10 +7083,10 @@
   <dimension ref="A1:U381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B354" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24804,6 +24804,9 @@
       <c r="A381" s="12" t="s">
         <v>2166</v>
       </c>
+      <c r="B381" t="s">
+        <v>39</v>
+      </c>
       <c r="I381" t="s">
         <v>262</v>
       </c>

--- a/docs/memorias coletivas base dados.xlsx
+++ b/docs/memorias coletivas base dados.xlsx
@@ -5646,9 +5646,6 @@
     <t>casa;entrada;portão</t>
   </si>
   <si>
-    <t>entrada;portão;22c;casa</t>
-  </si>
-  <si>
     <t>mar;pôr-do-sol</t>
   </si>
   <si>
@@ -5781,9 +5778,6 @@
     <t>desembarque;pontão;praia;passadiço</t>
   </si>
   <si>
-    <t>barraca;duna;vegetação</t>
-  </si>
-  <si>
     <t>barco;homem;marinheiro;tripulante</t>
   </si>
   <si>
@@ -5910,9 +5904,6 @@
     <t>criança;mulher;casa;pichagem</t>
   </si>
   <si>
-    <t>criança;duna;areia;vegetação</t>
-  </si>
-  <si>
     <t>mulher;casa;alvenaria;muro;tenda</t>
   </si>
   <si>
@@ -5928,9 +5919,6 @@
     <t>homem;mulher;barraca;destroços;mar</t>
   </si>
   <si>
-    <t>Homem;colchão;barraca</t>
-  </si>
-  <si>
     <t>barraca;destroços;mar</t>
   </si>
   <si>
@@ -5943,9 +5931,6 @@
     <t>homem;mulher;arruamento;casa;muro</t>
   </si>
   <si>
-    <t>homem;mulher;cão;automóvel;establecimento;comercio</t>
-  </si>
-  <si>
     <t>homem;mulher;criança;vespa;mini</t>
   </si>
   <si>
@@ -6015,15 +6000,6 @@
     <t>recorte;jornal</t>
   </si>
   <si>
-    <t>Desembarque do Flecha</t>
-  </si>
-  <si>
-    <t>Grupo de pessoas na amurada do  Flecha</t>
-  </si>
-  <si>
-    <t>Embarque no Flecha</t>
-  </si>
-  <si>
     <t>Mulher à porta da Vivenda Ponderosa</t>
   </si>
   <si>
@@ -6039,9 +6015,6 @@
     <t>O século Ilustrado, O Mar Avança sobre a terra, Reportagem  de Fernando Castro e Beatriz Ferreira, 2/2</t>
   </si>
   <si>
-    <t>Desembarque no barco O Flecha</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -6300,12 +6273,6 @@
     <t>jornal;O-Século;barraca;destroços;mar;pessoas</t>
   </si>
   <si>
-    <t>jornal;O-Século;banhistas;barco;Flecha;desembarque</t>
-  </si>
-  <si>
-    <t>jornal;O-Século;barco;Flecha;pessoas</t>
-  </si>
-  <si>
     <t>homem;fato-de-banho;boina</t>
   </si>
   <si>
@@ -6417,24 +6384,15 @@
     <t>pessoas;dunas;casa;barraca</t>
   </si>
   <si>
-    <t>mulher;praia;banhistas;barraca</t>
-  </si>
-  <si>
     <t>mulher;criança;praia;barraca</t>
   </si>
   <si>
     <t>mulher;chapéu;barco;mar;praia;barraca</t>
   </si>
   <si>
-    <t>jornal;O-Século;banhistas;barco;Flecha;desembarque;casa;dunas;barraca;pessoas</t>
-  </si>
-  <si>
     <t>jornal;O-Século;casa;barraca;destroços;mar;pessoas</t>
   </si>
   <si>
-    <t>jornal;O-Século;casa;barraca;dunas;banhistas;pessoas</t>
-  </si>
-  <si>
     <t>jornal;O-Século;casa;barraca;destroços;mar</t>
   </si>
   <si>
@@ -6522,9 +6480,6 @@
     <t>mulher;criança;fato-de-banho;areia;varanda;canteiro;vedação;vegetação</t>
   </si>
   <si>
-    <t>homem;nadador-salvador;banhistas;praia;areia;mar</t>
-  </si>
-  <si>
     <t>criança;praia;mata;arriba-fóssil</t>
   </si>
   <si>
@@ -6543,9 +6498,6 @@
     <t>homem;mulher;mesa;chapéu-de-sol</t>
   </si>
   <si>
-    <t>jornal;O-Século;barco;Flecha;pessoas;desembarque;multidão</t>
-  </si>
-  <si>
     <t>rapaz;destroços;banho;Evandro</t>
   </si>
   <si>
@@ -6561,9 +6513,6 @@
     <t>homem;mulher;criança;pessoas;barraca;casa;escada;alpendre</t>
   </si>
   <si>
-    <t>homem;gente;rua;establecimento;comercial</t>
-  </si>
-  <si>
     <t>homem;mulher;criança;escada;enrocamento;barraca</t>
   </si>
   <si>
@@ -6586,6 +6535,57 @@
   </si>
   <si>
     <t>mulher;criança;regador;varanda;barraca</t>
+  </si>
+  <si>
+    <t>homem;colchão;barraca</t>
+  </si>
+  <si>
+    <t>entrada;portão;22C;casa</t>
+  </si>
+  <si>
+    <t>Desembarque do O-Flecha</t>
+  </si>
+  <si>
+    <t>Grupo de pessoas na amurada do  O-Flecha</t>
+  </si>
+  <si>
+    <t>Embarque no O-Flecha</t>
+  </si>
+  <si>
+    <t>jornal;O-Século;barco;O-Flecha;pessoas</t>
+  </si>
+  <si>
+    <t>jornal;O-Século;barco;O-Flecha;pessoas;desembarque;multidão</t>
+  </si>
+  <si>
+    <t>Desembarque no barco O O-Flecha</t>
+  </si>
+  <si>
+    <t>mulher;praia;banhista;barraca</t>
+  </si>
+  <si>
+    <t>homem;nadador-salvador;banhista;praia;areia;mar</t>
+  </si>
+  <si>
+    <t>jornal;O-Século;banhista;barco;O-Flecha;desembarque</t>
+  </si>
+  <si>
+    <t>jornal;O-Século;banhista;barco;O-Flecha;desembarque;casa;dunas;barraca;pessoas</t>
+  </si>
+  <si>
+    <t>jornal;O-Século;casa;barraca;dunas;banhista;pessoas</t>
+  </si>
+  <si>
+    <t>homem;gente;rua;establecimento;comércio</t>
+  </si>
+  <si>
+    <t>homem;mulher;cão;automóvel;establecimento;comércio</t>
+  </si>
+  <si>
+    <t>barraca;dunas;vegetação</t>
+  </si>
+  <si>
+    <t>criança;dunas;areia;vegetação</t>
   </si>
 </sst>
 </file>
@@ -7127,13 +7127,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q381"/>
+  <dimension ref="A1:P381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I181" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P182" sqref="P182"/>
+      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7166,16 +7166,16 @@
         <v>1781</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>257</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>1830</v>
@@ -7796,7 +7796,7 @@
         <v>1763</v>
       </c>
       <c r="P13" t="s">
-        <v>2169</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7846,7 +7846,7 @@
         <v>1762</v>
       </c>
       <c r="P14" t="s">
-        <v>2169</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7896,7 +7896,7 @@
         <v>1761</v>
       </c>
       <c r="P15" t="s">
-        <v>2169</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7996,7 +7996,7 @@
         <v>1759</v>
       </c>
       <c r="P17" t="s">
-        <v>2169</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8046,7 +8046,7 @@
         <v>1758</v>
       </c>
       <c r="P18" t="s">
-        <v>2169</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8096,7 +8096,7 @@
         <v>1757</v>
       </c>
       <c r="P19" t="s">
-        <v>2169</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8146,7 +8146,7 @@
         <v>1756</v>
       </c>
       <c r="P20" t="s">
-        <v>2169</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8296,7 +8296,7 @@
         <v>1753</v>
       </c>
       <c r="P23" t="s">
-        <v>2169</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8346,7 +8346,7 @@
         <v>1752</v>
       </c>
       <c r="P24" t="s">
-        <v>2063</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8396,7 +8396,7 @@
         <v>1751</v>
       </c>
       <c r="P25" t="s">
-        <v>2051</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8596,7 +8596,7 @@
         <v>1747</v>
       </c>
       <c r="P29" t="s">
-        <v>2051</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8646,7 +8646,7 @@
         <v>1746</v>
       </c>
       <c r="P30" t="s">
-        <v>2051</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8696,7 +8696,7 @@
         <v>1745</v>
       </c>
       <c r="P31" t="s">
-        <v>2051</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8746,7 +8746,7 @@
         <v>1744</v>
       </c>
       <c r="P32" t="s">
-        <v>2052</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8796,7 +8796,7 @@
         <v>1743</v>
       </c>
       <c r="P33" t="s">
-        <v>2122</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8846,7 +8846,7 @@
         <v>1742</v>
       </c>
       <c r="P34" t="s">
-        <v>2120</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9146,7 +9146,7 @@
         <v>1736</v>
       </c>
       <c r="P40" t="s">
-        <v>2123</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9246,7 +9246,7 @@
         <v>1734</v>
       </c>
       <c r="P42" t="s">
-        <v>2119</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9296,7 +9296,7 @@
         <v>1733</v>
       </c>
       <c r="P43" t="s">
-        <v>2120</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9396,7 +9396,7 @@
         <v>1731</v>
       </c>
       <c r="P45" t="s">
-        <v>2053</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9496,7 +9496,7 @@
         <v>1729</v>
       </c>
       <c r="P47" t="s">
-        <v>2054</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10096,7 +10096,7 @@
         <v>1717</v>
       </c>
       <c r="P59" t="s">
-        <v>2051</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10546,7 +10546,7 @@
         <v>1708</v>
       </c>
       <c r="P68" t="s">
-        <v>2072</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10596,7 +10596,7 @@
         <v>1707</v>
       </c>
       <c r="P69" t="s">
-        <v>2072</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10646,7 +10646,7 @@
         <v>1706</v>
       </c>
       <c r="P70" t="s">
-        <v>2073</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10696,7 +10696,7 @@
         <v>1705</v>
       </c>
       <c r="P71" t="s">
-        <v>2072</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10746,7 +10746,7 @@
         <v>1704</v>
       </c>
       <c r="P72" t="s">
-        <v>2072</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10796,7 +10796,7 @@
         <v>1703</v>
       </c>
       <c r="P73" t="s">
-        <v>2076</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11096,7 +11096,7 @@
         <v>1697</v>
       </c>
       <c r="P79" t="s">
-        <v>2075</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11146,7 +11146,7 @@
         <v>1696</v>
       </c>
       <c r="P80" t="s">
-        <v>2063</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11196,7 +11196,7 @@
         <v>1695</v>
       </c>
       <c r="P81" t="s">
-        <v>1873</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11246,7 +11246,7 @@
         <v>1694</v>
       </c>
       <c r="P82" t="s">
-        <v>2124</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11296,7 +11296,7 @@
         <v>1693</v>
       </c>
       <c r="P83" t="s">
-        <v>2125</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11346,7 +11346,7 @@
         <v>1692</v>
       </c>
       <c r="P84" t="s">
-        <v>2055</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11396,7 +11396,7 @@
         <v>1691</v>
       </c>
       <c r="P85" t="s">
-        <v>2064</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11496,7 +11496,7 @@
         <v>1689</v>
       </c>
       <c r="P87" t="s">
-        <v>2051</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11596,7 +11596,7 @@
         <v>1687</v>
       </c>
       <c r="P89" t="s">
-        <v>2074</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11746,7 +11746,7 @@
         <v>1684</v>
       </c>
       <c r="P92" t="s">
-        <v>2077</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11796,7 +11796,7 @@
         <v>1683</v>
       </c>
       <c r="P93" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11846,7 +11846,7 @@
         <v>1682</v>
       </c>
       <c r="P94" t="s">
-        <v>2079</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11896,7 +11896,7 @@
         <v>1681</v>
       </c>
       <c r="P95" t="s">
-        <v>2127</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11946,7 +11946,7 @@
         <v>1680</v>
       </c>
       <c r="P96" t="s">
-        <v>2128</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11996,7 +11996,7 @@
         <v>1679</v>
       </c>
       <c r="P97" t="s">
-        <v>2121</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12046,7 +12046,7 @@
         <v>1678</v>
       </c>
       <c r="P98" t="s">
-        <v>2097</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12096,7 +12096,7 @@
         <v>1677</v>
       </c>
       <c r="P99" t="s">
-        <v>2078</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12196,7 +12196,7 @@
         <v>1675</v>
       </c>
       <c r="P101" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12246,7 +12246,7 @@
         <v>1674</v>
       </c>
       <c r="P102" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12296,7 +12296,7 @@
         <v>1673</v>
       </c>
       <c r="P103" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12346,7 +12346,7 @@
         <v>1672</v>
       </c>
       <c r="P104" t="s">
-        <v>2042</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12396,7 +12396,7 @@
         <v>1671</v>
       </c>
       <c r="P105" t="s">
-        <v>2043</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12413,7 +12413,7 @@
         <v>159</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H106" t="s">
         <v>258</v>
@@ -12440,7 +12440,7 @@
         <v>1670</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>2056</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12457,7 +12457,7 @@
         <v>159</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H107" t="s">
         <v>258</v>
@@ -12484,7 +12484,7 @@
         <v>1669</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>2129</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12501,7 +12501,7 @@
         <v>159</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H108" t="s">
         <v>258</v>
@@ -12528,7 +12528,7 @@
         <v>1668</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12545,7 +12545,7 @@
         <v>159</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H109" t="s">
         <v>258</v>
@@ -12572,7 +12572,7 @@
         <v>1667</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12589,7 +12589,7 @@
         <v>159</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H110" t="s">
         <v>258</v>
@@ -12616,7 +12616,7 @@
         <v>1666</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>2170</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12633,7 +12633,7 @@
         <v>159</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H111" t="s">
         <v>258</v>
@@ -12660,7 +12660,7 @@
         <v>1665</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12677,7 +12677,7 @@
         <v>159</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H112" t="s">
         <v>258</v>
@@ -12704,7 +12704,7 @@
         <v>1664</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>2066</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="113" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12721,7 +12721,7 @@
         <v>159</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H113" t="s">
         <v>258</v>
@@ -12748,7 +12748,7 @@
         <v>1663</v>
       </c>
       <c r="P113" s="2" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12765,7 +12765,7 @@
         <v>159</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H114" t="s">
         <v>258</v>
@@ -12792,7 +12792,7 @@
         <v>1662</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12809,7 +12809,7 @@
         <v>159</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H115" t="s">
         <v>258</v>
@@ -12836,7 +12836,7 @@
         <v>1661</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>2044</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="116" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12853,7 +12853,7 @@
         <v>159</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H116" t="s">
         <v>258</v>
@@ -12880,7 +12880,7 @@
         <v>1660</v>
       </c>
       <c r="P116" t="s">
-        <v>2080</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="117" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12897,7 +12897,7 @@
         <v>159</v>
       </c>
       <c r="F117" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H117" t="s">
         <v>258</v>
@@ -12924,7 +12924,7 @@
         <v>1659</v>
       </c>
       <c r="P117" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="118" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12941,7 +12941,7 @@
         <v>159</v>
       </c>
       <c r="F118" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H118" t="s">
         <v>258</v>
@@ -12968,7 +12968,7 @@
         <v>1658</v>
       </c>
       <c r="P118" t="s">
-        <v>2126</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="119" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12985,7 +12985,7 @@
         <v>159</v>
       </c>
       <c r="F119" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H119" t="s">
         <v>258</v>
@@ -13012,7 +13012,7 @@
         <v>1657</v>
       </c>
       <c r="P119" t="s">
-        <v>2081</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="120" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13029,7 +13029,7 @@
         <v>160</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H120" t="s">
         <v>258</v>
@@ -13056,7 +13056,7 @@
         <v>1656</v>
       </c>
       <c r="P120" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13073,7 +13073,7 @@
         <v>159</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H121" t="s">
         <v>258</v>
@@ -13100,7 +13100,7 @@
         <v>1655</v>
       </c>
       <c r="P121" t="s">
-        <v>2130</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="122" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13117,7 +13117,7 @@
         <v>159</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H122" t="s">
         <v>258</v>
@@ -13144,7 +13144,7 @@
         <v>1654</v>
       </c>
       <c r="P122" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13161,7 +13161,7 @@
         <v>159</v>
       </c>
       <c r="F123" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H123" t="s">
         <v>258</v>
@@ -13188,7 +13188,7 @@
         <v>1653</v>
       </c>
       <c r="P123" t="s">
-        <v>2045</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="124" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13205,7 +13205,7 @@
         <v>159</v>
       </c>
       <c r="F124" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H124" t="s">
         <v>258</v>
@@ -13232,7 +13232,7 @@
         <v>1652</v>
       </c>
       <c r="P124" s="2" t="s">
-        <v>2178</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="125" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13249,7 +13249,7 @@
         <v>159</v>
       </c>
       <c r="F125" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H125" t="s">
         <v>258</v>
@@ -13276,7 +13276,7 @@
         <v>1651</v>
       </c>
       <c r="P125" t="s">
-        <v>2082</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="126" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13293,7 +13293,7 @@
         <v>159</v>
       </c>
       <c r="F126" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H126" t="s">
         <v>258</v>
@@ -13320,7 +13320,7 @@
         <v>1650</v>
       </c>
       <c r="P126" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="127" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13337,7 +13337,7 @@
         <v>159</v>
       </c>
       <c r="F127" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H127" t="s">
         <v>258</v>
@@ -13364,7 +13364,7 @@
         <v>1649</v>
       </c>
       <c r="P127" t="s">
-        <v>2083</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="128" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13381,7 +13381,7 @@
         <v>159</v>
       </c>
       <c r="F128" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H128" t="s">
         <v>258</v>
@@ -13408,7 +13408,7 @@
         <v>1648</v>
       </c>
       <c r="P128" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="129" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13425,7 +13425,7 @@
         <v>159</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H129" t="s">
         <v>258</v>
@@ -13452,7 +13452,7 @@
         <v>1647</v>
       </c>
       <c r="P129" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="130" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13469,7 +13469,7 @@
         <v>159</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H130" t="s">
         <v>258</v>
@@ -13496,7 +13496,7 @@
         <v>1646</v>
       </c>
       <c r="P130" t="s">
-        <v>2040</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="131" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13513,7 +13513,7 @@
         <v>159</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H131" t="s">
         <v>258</v>
@@ -13540,7 +13540,7 @@
         <v>1645</v>
       </c>
       <c r="P131" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13557,7 +13557,7 @@
         <v>159</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H132" t="s">
         <v>258</v>
@@ -13584,7 +13584,7 @@
         <v>1644</v>
       </c>
       <c r="P132" t="s">
-        <v>2099</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="133" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13601,7 +13601,7 @@
         <v>159</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H133" t="s">
         <v>258</v>
@@ -13628,7 +13628,7 @@
         <v>1643</v>
       </c>
       <c r="P133" t="s">
-        <v>2040</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13645,7 +13645,7 @@
         <v>159</v>
       </c>
       <c r="F134" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H134" t="s">
         <v>258</v>
@@ -13672,7 +13672,7 @@
         <v>1642</v>
       </c>
       <c r="P134" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13689,7 +13689,7 @@
         <v>159</v>
       </c>
       <c r="F135" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H135" t="s">
         <v>258</v>
@@ -13716,7 +13716,7 @@
         <v>1641</v>
       </c>
       <c r="P135" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="136" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13733,7 +13733,7 @@
         <v>159</v>
       </c>
       <c r="F136" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H136" t="s">
         <v>258</v>
@@ -13760,7 +13760,7 @@
         <v>1640</v>
       </c>
       <c r="P136" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13777,7 +13777,7 @@
         <v>159</v>
       </c>
       <c r="F137" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H137" t="s">
         <v>258</v>
@@ -13804,7 +13804,7 @@
         <v>1639</v>
       </c>
       <c r="P137" t="s">
-        <v>2046</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13821,7 +13821,7 @@
         <v>159</v>
       </c>
       <c r="F138" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H138" t="s">
         <v>258</v>
@@ -13848,7 +13848,7 @@
         <v>1638</v>
       </c>
       <c r="P138" t="s">
-        <v>2037</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13865,7 +13865,7 @@
         <v>159</v>
       </c>
       <c r="F139" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H139" t="s">
         <v>258</v>
@@ -13892,7 +13892,7 @@
         <v>1637</v>
       </c>
       <c r="P139" t="s">
-        <v>2131</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13909,7 +13909,7 @@
         <v>159</v>
       </c>
       <c r="F140" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H140" t="s">
         <v>258</v>
@@ -13936,7 +13936,7 @@
         <v>1636</v>
       </c>
       <c r="P140" t="s">
-        <v>2118</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13953,7 +13953,7 @@
         <v>159</v>
       </c>
       <c r="F141" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H141" t="s">
         <v>258</v>
@@ -13980,7 +13980,7 @@
         <v>1635</v>
       </c>
       <c r="P141" t="s">
-        <v>2100</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13997,7 +13997,7 @@
         <v>159</v>
       </c>
       <c r="F142" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H142" t="s">
         <v>258</v>
@@ -14024,7 +14024,7 @@
         <v>1634</v>
       </c>
       <c r="P142" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14041,7 +14041,7 @@
         <v>159</v>
       </c>
       <c r="F143" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H143" t="s">
         <v>258</v>
@@ -14068,7 +14068,7 @@
         <v>1633</v>
       </c>
       <c r="P143" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="144" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14085,7 +14085,7 @@
         <v>159</v>
       </c>
       <c r="F144" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H144" t="s">
         <v>258</v>
@@ -14112,7 +14112,7 @@
         <v>1632</v>
       </c>
       <c r="P144" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="145" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14129,7 +14129,7 @@
         <v>159</v>
       </c>
       <c r="F145" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H145" t="s">
         <v>258</v>
@@ -14156,7 +14156,7 @@
         <v>1631</v>
       </c>
       <c r="P145" t="s">
-        <v>2068</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14173,7 +14173,7 @@
         <v>159</v>
       </c>
       <c r="F146" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H146" t="s">
         <v>258</v>
@@ -14200,7 +14200,7 @@
         <v>1630</v>
       </c>
       <c r="P146" s="2" t="s">
-        <v>2167</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14217,7 +14217,7 @@
         <v>159</v>
       </c>
       <c r="F147" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H147" t="s">
         <v>258</v>
@@ -14244,7 +14244,7 @@
         <v>1629</v>
       </c>
       <c r="P147" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="148" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14261,7 +14261,7 @@
         <v>159</v>
       </c>
       <c r="F148" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H148" t="s">
         <v>258</v>
@@ -14288,7 +14288,7 @@
         <v>1628</v>
       </c>
       <c r="P148" t="s">
-        <v>2144</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="149" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14305,7 +14305,7 @@
         <v>159</v>
       </c>
       <c r="F149" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H149" t="s">
         <v>258</v>
@@ -14332,7 +14332,7 @@
         <v>1627</v>
       </c>
       <c r="P149" t="s">
-        <v>2104</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="150" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14349,7 +14349,7 @@
         <v>159</v>
       </c>
       <c r="F150" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H150" t="s">
         <v>258</v>
@@ -14376,7 +14376,7 @@
         <v>1626</v>
       </c>
       <c r="P150" t="s">
-        <v>2105</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="151" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14393,7 +14393,7 @@
         <v>159</v>
       </c>
       <c r="F151" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H151" t="s">
         <v>258</v>
@@ -14420,7 +14420,7 @@
         <v>1625</v>
       </c>
       <c r="P151" t="s">
-        <v>2106</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="152" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14437,7 +14437,7 @@
         <v>159</v>
       </c>
       <c r="F152" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H152" t="s">
         <v>258</v>
@@ -14464,7 +14464,7 @@
         <v>1624</v>
       </c>
       <c r="P152" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="153" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14481,7 +14481,7 @@
         <v>159</v>
       </c>
       <c r="F153" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H153" t="s">
         <v>258</v>
@@ -14508,7 +14508,7 @@
         <v>1623</v>
       </c>
       <c r="P153" t="s">
-        <v>2107</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14525,7 +14525,7 @@
         <v>159</v>
       </c>
       <c r="F154" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H154" t="s">
         <v>258</v>
@@ -14552,7 +14552,7 @@
         <v>1622</v>
       </c>
       <c r="P154" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14569,7 +14569,7 @@
         <v>159</v>
       </c>
       <c r="F155" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H155" t="s">
         <v>258</v>
@@ -14596,7 +14596,7 @@
         <v>1621</v>
       </c>
       <c r="P155" t="s">
-        <v>2145</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="156" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14613,7 +14613,7 @@
         <v>159</v>
       </c>
       <c r="F156" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H156" t="s">
         <v>258</v>
@@ -14640,7 +14640,7 @@
         <v>1620</v>
       </c>
       <c r="P156" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="157" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14657,7 +14657,7 @@
         <v>159</v>
       </c>
       <c r="F157" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H157" t="s">
         <v>258</v>
@@ -14684,7 +14684,7 @@
         <v>1619</v>
       </c>
       <c r="P157" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="158" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14701,7 +14701,7 @@
         <v>160</v>
       </c>
       <c r="F158" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H158" t="s">
         <v>258</v>
@@ -14728,7 +14728,7 @@
         <v>1618</v>
       </c>
       <c r="P158" t="s">
-        <v>2108</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="159" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14745,7 +14745,7 @@
         <v>159</v>
       </c>
       <c r="F159" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H159" t="s">
         <v>258</v>
@@ -14772,7 +14772,7 @@
         <v>1617</v>
       </c>
       <c r="P159" t="s">
-        <v>2084</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="160" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14789,7 +14789,7 @@
         <v>159</v>
       </c>
       <c r="F160" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H160" t="s">
         <v>258</v>
@@ -14816,7 +14816,7 @@
         <v>1616</v>
       </c>
       <c r="P160" t="s">
-        <v>2146</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="161" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14833,7 +14833,7 @@
         <v>159</v>
       </c>
       <c r="F161" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H161" t="s">
         <v>258</v>
@@ -14860,7 +14860,7 @@
         <v>1615</v>
       </c>
       <c r="P161" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="162" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14877,7 +14877,7 @@
         <v>159</v>
       </c>
       <c r="F162" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H162" t="s">
         <v>258</v>
@@ -14904,7 +14904,7 @@
         <v>1614</v>
       </c>
       <c r="P162" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="163" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14921,7 +14921,7 @@
         <v>159</v>
       </c>
       <c r="F163" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H163" t="s">
         <v>258</v>
@@ -14948,7 +14948,7 @@
         <v>1613</v>
       </c>
       <c r="P163" t="s">
-        <v>2132</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="164" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14965,7 +14965,7 @@
         <v>159</v>
       </c>
       <c r="F164" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H164" t="s">
         <v>258</v>
@@ -14992,7 +14992,7 @@
         <v>1612</v>
       </c>
       <c r="P164" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="165" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15009,7 +15009,7 @@
         <v>159</v>
       </c>
       <c r="F165" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H165" t="s">
         <v>258</v>
@@ -15036,7 +15036,7 @@
         <v>1611</v>
       </c>
       <c r="P165" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="166" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15053,7 +15053,7 @@
         <v>159</v>
       </c>
       <c r="F166" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H166" t="s">
         <v>258</v>
@@ -15080,7 +15080,7 @@
         <v>1610</v>
       </c>
       <c r="P166" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="167" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15097,7 +15097,7 @@
         <v>159</v>
       </c>
       <c r="F167" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H167" t="s">
         <v>258</v>
@@ -15124,7 +15124,7 @@
         <v>1609</v>
       </c>
       <c r="P167" t="s">
-        <v>2101</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="168" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15141,7 +15141,7 @@
         <v>160</v>
       </c>
       <c r="F168" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H168" t="s">
         <v>258</v>
@@ -15168,7 +15168,7 @@
         <v>1608</v>
       </c>
       <c r="P168" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="169" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15185,7 +15185,7 @@
         <v>159</v>
       </c>
       <c r="F169" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H169" t="s">
         <v>258</v>
@@ -15212,7 +15212,7 @@
         <v>1607</v>
       </c>
       <c r="P169" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="170" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15229,7 +15229,7 @@
         <v>159</v>
       </c>
       <c r="F170" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H170" t="s">
         <v>258</v>
@@ -15256,7 +15256,7 @@
         <v>1606</v>
       </c>
       <c r="P170" t="s">
-        <v>2102</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="171" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15273,7 +15273,7 @@
         <v>159</v>
       </c>
       <c r="F171" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H171" t="s">
         <v>258</v>
@@ -15300,7 +15300,7 @@
         <v>1605</v>
       </c>
       <c r="P171" t="s">
-        <v>2085</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="172" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15317,7 +15317,7 @@
         <v>159</v>
       </c>
       <c r="F172" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H172" t="s">
         <v>258</v>
@@ -15344,7 +15344,7 @@
         <v>1604</v>
       </c>
       <c r="P172" t="s">
-        <v>2109</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="173" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15361,7 +15361,7 @@
         <v>159</v>
       </c>
       <c r="F173" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H173" t="s">
         <v>258</v>
@@ -15388,7 +15388,7 @@
         <v>1603</v>
       </c>
       <c r="P173" t="s">
-        <v>2086</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="174" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15405,7 +15405,7 @@
         <v>159</v>
       </c>
       <c r="F174" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H174" t="s">
         <v>258</v>
@@ -15432,7 +15432,7 @@
         <v>1602</v>
       </c>
       <c r="P174" t="s">
-        <v>2096</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="175" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15449,7 +15449,7 @@
         <v>159</v>
       </c>
       <c r="F175" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H175" t="s">
         <v>258</v>
@@ -15476,7 +15476,7 @@
         <v>1601</v>
       </c>
       <c r="P175" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="176" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15493,7 +15493,7 @@
         <v>159</v>
       </c>
       <c r="F176" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H176" t="s">
         <v>258</v>
@@ -15520,7 +15520,7 @@
         <v>1600</v>
       </c>
       <c r="P176" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="177" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15537,7 +15537,7 @@
         <v>159</v>
       </c>
       <c r="F177" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H177" t="s">
         <v>258</v>
@@ -15564,7 +15564,7 @@
         <v>1599</v>
       </c>
       <c r="P177" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="178" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15581,7 +15581,7 @@
         <v>159</v>
       </c>
       <c r="F178" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H178" t="s">
         <v>258</v>
@@ -15608,7 +15608,7 @@
         <v>1598</v>
       </c>
       <c r="P178" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="179" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15625,7 +15625,7 @@
         <v>159</v>
       </c>
       <c r="F179" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H179" t="s">
         <v>258</v>
@@ -15652,7 +15652,7 @@
         <v>1597</v>
       </c>
       <c r="P179" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="180" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15669,7 +15669,7 @@
         <v>160</v>
       </c>
       <c r="F180" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H180" t="s">
         <v>258</v>
@@ -15696,7 +15696,7 @@
         <v>1596</v>
       </c>
       <c r="P180" t="s">
-        <v>2110</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="181" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15713,7 +15713,7 @@
         <v>160</v>
       </c>
       <c r="F181" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H181" t="s">
         <v>258</v>
@@ -15740,7 +15740,7 @@
         <v>1595</v>
       </c>
       <c r="P181" s="2" t="s">
-        <v>2186</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="182" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15757,7 +15757,7 @@
         <v>160</v>
       </c>
       <c r="F182" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H182" t="s">
         <v>258</v>
@@ -15784,7 +15784,7 @@
         <v>1594</v>
       </c>
       <c r="P182" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="183" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15801,7 +15801,7 @@
         <v>160</v>
       </c>
       <c r="F183" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H183" t="s">
         <v>258</v>
@@ -15828,7 +15828,7 @@
         <v>1593</v>
       </c>
       <c r="P183" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="184" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15845,7 +15845,7 @@
         <v>159</v>
       </c>
       <c r="F184" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H184" t="s">
         <v>258</v>
@@ -15872,7 +15872,7 @@
         <v>1592</v>
       </c>
       <c r="P184" t="s">
-        <v>2103</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="185" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15889,7 +15889,7 @@
         <v>159</v>
       </c>
       <c r="F185" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H185" t="s">
         <v>258</v>
@@ -15916,7 +15916,7 @@
         <v>1591</v>
       </c>
       <c r="P185" t="s">
-        <v>2087</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="186" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15933,7 +15933,7 @@
         <v>159</v>
       </c>
       <c r="F186" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H186" t="s">
         <v>258</v>
@@ -15960,7 +15960,7 @@
         <v>1590</v>
       </c>
       <c r="P186" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="187" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15977,7 +15977,7 @@
         <v>159</v>
       </c>
       <c r="F187" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H187" t="s">
         <v>258</v>
@@ -16004,7 +16004,7 @@
         <v>1589</v>
       </c>
       <c r="P187" t="s">
-        <v>2111</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="188" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16021,7 +16021,7 @@
         <v>159</v>
       </c>
       <c r="F188" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H188" t="s">
         <v>258</v>
@@ -16048,7 +16048,7 @@
         <v>1588</v>
       </c>
       <c r="P188" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="189" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16065,7 +16065,7 @@
         <v>159</v>
       </c>
       <c r="F189" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H189" t="s">
         <v>258</v>
@@ -16092,7 +16092,7 @@
         <v>1587</v>
       </c>
       <c r="P189" s="2" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="190" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16109,7 +16109,7 @@
         <v>159</v>
       </c>
       <c r="F190" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H190" t="s">
         <v>258</v>
@@ -16136,7 +16136,7 @@
         <v>1586</v>
       </c>
       <c r="P190" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="191" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16153,7 +16153,7 @@
         <v>159</v>
       </c>
       <c r="F191" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H191" t="s">
         <v>258</v>
@@ -16180,7 +16180,7 @@
         <v>1585</v>
       </c>
       <c r="P191" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="192" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16197,7 +16197,7 @@
         <v>159</v>
       </c>
       <c r="F192" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H192" t="s">
         <v>258</v>
@@ -16224,7 +16224,7 @@
         <v>1584</v>
       </c>
       <c r="P192" s="2" t="s">
-        <v>2147</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="193" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16241,7 +16241,7 @@
         <v>159</v>
       </c>
       <c r="F193" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H193" t="s">
         <v>258</v>
@@ -16268,7 +16268,7 @@
         <v>1583</v>
       </c>
       <c r="P193" t="s">
-        <v>2087</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="194" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16285,7 +16285,7 @@
         <v>1785</v>
       </c>
       <c r="F194" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H194" t="s">
         <v>258</v>
@@ -16312,7 +16312,7 @@
         <v>1582</v>
       </c>
       <c r="P194" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="195" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16323,7 +16323,7 @@
         <v>27</v>
       </c>
       <c r="C195" t="s">
-        <v>1996</v>
+        <v>2172</v>
       </c>
       <c r="D195" t="s">
         <v>1785</v>
@@ -16362,7 +16362,7 @@
         <v>1581</v>
       </c>
       <c r="P195" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="196" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16412,7 +16412,7 @@
         <v>1780</v>
       </c>
       <c r="P196" t="s">
-        <v>1918</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="197" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16462,7 +16462,7 @@
         <v>1779</v>
       </c>
       <c r="P197" t="s">
-        <v>2083</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="198" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16473,13 +16473,13 @@
         <v>27</v>
       </c>
       <c r="C198" t="s">
-        <v>1997</v>
+        <v>2173</v>
       </c>
       <c r="D198" t="s">
         <v>1785</v>
       </c>
       <c r="F198" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H198" t="s">
         <v>258</v>
@@ -16506,7 +16506,7 @@
         <v>1778</v>
       </c>
       <c r="P198" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="199" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16517,7 +16517,7 @@
         <v>27</v>
       </c>
       <c r="C199" t="s">
-        <v>1998</v>
+        <v>2174</v>
       </c>
       <c r="D199" t="s">
         <v>1785</v>
@@ -16556,7 +16556,7 @@
         <v>1777</v>
       </c>
       <c r="P199" t="s">
-        <v>2038</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="200" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16573,7 +16573,7 @@
         <v>160</v>
       </c>
       <c r="F200" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H200" t="s">
         <v>258</v>
@@ -16600,7 +16600,7 @@
         <v>1776</v>
       </c>
       <c r="P200" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="201" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16617,7 +16617,7 @@
         <v>159</v>
       </c>
       <c r="F201" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H201" t="s">
         <v>258</v>
@@ -16644,7 +16644,7 @@
         <v>1775</v>
       </c>
       <c r="P201" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="202" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16661,7 +16661,7 @@
         <v>159</v>
       </c>
       <c r="F202" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H202" t="s">
         <v>258</v>
@@ -16688,7 +16688,7 @@
         <v>1555</v>
       </c>
       <c r="P202" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="203" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16705,7 +16705,7 @@
         <v>159</v>
       </c>
       <c r="F203" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H203" t="s">
         <v>258</v>
@@ -16732,7 +16732,7 @@
         <v>1554</v>
       </c>
       <c r="P203" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="204" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16749,7 +16749,7 @@
         <v>159</v>
       </c>
       <c r="F204" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H204" t="s">
         <v>258</v>
@@ -16776,7 +16776,7 @@
         <v>1553</v>
       </c>
       <c r="P204" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="205" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16793,7 +16793,7 @@
         <v>159</v>
       </c>
       <c r="F205" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H205" t="s">
         <v>258</v>
@@ -16820,7 +16820,7 @@
         <v>1552</v>
       </c>
       <c r="P205" s="2" t="s">
-        <v>2166</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="206" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16837,7 +16837,7 @@
         <v>159</v>
       </c>
       <c r="F206" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H206" t="s">
         <v>258</v>
@@ -16864,7 +16864,7 @@
         <v>1551</v>
       </c>
       <c r="P206" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="207" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16881,7 +16881,7 @@
         <v>160</v>
       </c>
       <c r="F207" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H207" t="s">
         <v>258</v>
@@ -16908,7 +16908,7 @@
         <v>1550</v>
       </c>
       <c r="P207" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="208" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16925,7 +16925,7 @@
         <v>159</v>
       </c>
       <c r="F208" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H208" t="s">
         <v>258</v>
@@ -16952,7 +16952,7 @@
         <v>1549</v>
       </c>
       <c r="P208" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="209" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16969,7 +16969,7 @@
         <v>159</v>
       </c>
       <c r="F209" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H209" t="s">
         <v>258</v>
@@ -16996,7 +16996,7 @@
         <v>1548</v>
       </c>
       <c r="P209" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="210" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17013,7 +17013,7 @@
         <v>159</v>
       </c>
       <c r="F210" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H210" t="s">
         <v>258</v>
@@ -17040,7 +17040,7 @@
         <v>1547</v>
       </c>
       <c r="P210" s="2" t="s">
-        <v>2185</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17057,7 +17057,7 @@
         <v>159</v>
       </c>
       <c r="F211" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H211" t="s">
         <v>258</v>
@@ -17084,7 +17084,7 @@
         <v>1546</v>
       </c>
       <c r="P211" t="s">
-        <v>2039</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="212" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17101,7 +17101,7 @@
         <v>159</v>
       </c>
       <c r="F212" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H212" t="s">
         <v>258</v>
@@ -17128,7 +17128,7 @@
         <v>1545</v>
       </c>
       <c r="P212" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="213" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17145,7 +17145,7 @@
         <v>160</v>
       </c>
       <c r="F213" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H213" t="s">
         <v>258</v>
@@ -17172,7 +17172,7 @@
         <v>1544</v>
       </c>
       <c r="P213" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="214" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17189,7 +17189,7 @@
         <v>160</v>
       </c>
       <c r="F214" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H214" t="s">
         <v>258</v>
@@ -17216,7 +17216,7 @@
         <v>1543</v>
       </c>
       <c r="P214" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="215" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17233,7 +17233,7 @@
         <v>160</v>
       </c>
       <c r="F215" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H215" t="s">
         <v>258</v>
@@ -17260,7 +17260,7 @@
         <v>1542</v>
       </c>
       <c r="P215" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="216" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17277,7 +17277,7 @@
         <v>160</v>
       </c>
       <c r="F216" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H216" t="s">
         <v>258</v>
@@ -17304,7 +17304,7 @@
         <v>1541</v>
       </c>
       <c r="P216" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="217" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17321,7 +17321,7 @@
         <v>160</v>
       </c>
       <c r="F217" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H217" t="s">
         <v>258</v>
@@ -17348,7 +17348,7 @@
         <v>1540</v>
       </c>
       <c r="P217" s="2" t="s">
-        <v>2164</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="218" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17365,7 +17365,7 @@
         <v>160</v>
       </c>
       <c r="F218" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H218" t="s">
         <v>258</v>
@@ -17392,7 +17392,7 @@
         <v>1539</v>
       </c>
       <c r="P218" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="219" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17409,7 +17409,7 @@
         <v>160</v>
       </c>
       <c r="F219" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H219" t="s">
         <v>258</v>
@@ -17436,7 +17436,7 @@
         <v>1538</v>
       </c>
       <c r="P219" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="220" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17453,7 +17453,7 @@
         <v>160</v>
       </c>
       <c r="F220" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H220" t="s">
         <v>258</v>
@@ -17480,7 +17480,7 @@
         <v>1537</v>
       </c>
       <c r="P220" t="s">
-        <v>2112</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="221" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17491,13 +17491,13 @@
         <v>28</v>
       </c>
       <c r="C221" t="s">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="D221" t="s">
         <v>159</v>
       </c>
       <c r="F221" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H221" t="s">
         <v>258</v>
@@ -17524,7 +17524,7 @@
         <v>1536</v>
       </c>
       <c r="P221" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="222" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17541,7 +17541,7 @@
         <v>160</v>
       </c>
       <c r="F222" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H222" t="s">
         <v>258</v>
@@ -17568,7 +17568,7 @@
         <v>1535</v>
       </c>
       <c r="P222" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="223" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17585,7 +17585,7 @@
         <v>159</v>
       </c>
       <c r="F223" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H223" t="s">
         <v>258</v>
@@ -17612,7 +17612,7 @@
         <v>1534</v>
       </c>
       <c r="P223" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="224" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17629,7 +17629,7 @@
         <v>1786</v>
       </c>
       <c r="F224" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H224" t="s">
         <v>258</v>
@@ -17656,7 +17656,7 @@
         <v>1533</v>
       </c>
       <c r="P224" t="s">
-        <v>2148</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="225" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17673,7 +17673,7 @@
         <v>1783</v>
       </c>
       <c r="F225" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H225" t="s">
         <v>258</v>
@@ -17700,7 +17700,7 @@
         <v>1532</v>
       </c>
       <c r="P225" s="2" t="s">
-        <v>2180</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="226" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17717,7 +17717,7 @@
         <v>1783</v>
       </c>
       <c r="F226" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H226" t="s">
         <v>258</v>
@@ -17744,7 +17744,7 @@
         <v>1531</v>
       </c>
       <c r="P226" t="s">
-        <v>2065</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="227" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17761,7 +17761,7 @@
         <v>1783</v>
       </c>
       <c r="F227" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H227" t="s">
         <v>258</v>
@@ -17788,7 +17788,7 @@
         <v>1530</v>
       </c>
       <c r="P227" t="s">
-        <v>2088</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="228" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17805,7 +17805,7 @@
         <v>1783</v>
       </c>
       <c r="F228" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H228" t="s">
         <v>258</v>
@@ -17832,7 +17832,7 @@
         <v>1529</v>
       </c>
       <c r="P228" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="229" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17849,7 +17849,7 @@
         <v>1783</v>
       </c>
       <c r="F229" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H229" t="s">
         <v>258</v>
@@ -17876,7 +17876,7 @@
         <v>1528</v>
       </c>
       <c r="P229" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="230" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17893,7 +17893,7 @@
         <v>1783</v>
       </c>
       <c r="F230" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H230" t="s">
         <v>258</v>
@@ -17920,7 +17920,7 @@
         <v>1527</v>
       </c>
       <c r="P230" t="s">
-        <v>2149</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="231" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17970,7 +17970,7 @@
         <v>1526</v>
       </c>
       <c r="P231" t="s">
-        <v>2150</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="232" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18020,7 +18020,7 @@
         <v>1525</v>
       </c>
       <c r="P232" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="233" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18070,7 +18070,7 @@
         <v>1524</v>
       </c>
       <c r="P233" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="234" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18120,7 +18120,7 @@
         <v>1523</v>
       </c>
       <c r="P234" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="235" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18170,7 +18170,7 @@
         <v>1522</v>
       </c>
       <c r="P235" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="236" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18220,7 +18220,7 @@
         <v>1521</v>
       </c>
       <c r="P236" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="237" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18270,7 +18270,7 @@
         <v>1520</v>
       </c>
       <c r="P237" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="238" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18320,7 +18320,7 @@
         <v>1519</v>
       </c>
       <c r="P238" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="239" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18337,7 +18337,7 @@
         <v>1783</v>
       </c>
       <c r="F239" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H239" t="s">
         <v>258</v>
@@ -18364,7 +18364,7 @@
         <v>1518</v>
       </c>
       <c r="P239" t="s">
-        <v>2151</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="240" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18414,7 +18414,7 @@
         <v>1517</v>
       </c>
       <c r="P240" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="241" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18431,7 +18431,7 @@
         <v>1783</v>
       </c>
       <c r="F241" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H241" t="s">
         <v>258</v>
@@ -18458,7 +18458,7 @@
         <v>1516</v>
       </c>
       <c r="P241" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="242" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18475,7 +18475,7 @@
         <v>1783</v>
       </c>
       <c r="F242" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H242" t="s">
         <v>258</v>
@@ -18502,7 +18502,7 @@
         <v>1515</v>
       </c>
       <c r="P242" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="243" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18519,7 +18519,7 @@
         <v>1783</v>
       </c>
       <c r="F243" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H243" t="s">
         <v>258</v>
@@ -18546,7 +18546,7 @@
         <v>1514</v>
       </c>
       <c r="P243" t="s">
-        <v>2089</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="244" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18596,7 +18596,7 @@
         <v>1513</v>
       </c>
       <c r="P244" t="s">
-        <v>2152</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="245" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18613,7 +18613,7 @@
         <v>1783</v>
       </c>
       <c r="F245" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H245" t="s">
         <v>258</v>
@@ -18640,7 +18640,7 @@
         <v>1512</v>
       </c>
       <c r="P245" s="2" t="s">
-        <v>2165</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="246" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18657,7 +18657,7 @@
         <v>1783</v>
       </c>
       <c r="F246" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H246" t="s">
         <v>258</v>
@@ -18684,7 +18684,7 @@
         <v>1511</v>
       </c>
       <c r="P246" s="2" t="s">
-        <v>2171</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="247" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18701,7 +18701,7 @@
         <v>1791</v>
       </c>
       <c r="F247" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H247" t="s">
         <v>258</v>
@@ -18728,7 +18728,7 @@
         <v>1510</v>
       </c>
       <c r="P247" s="2" t="s">
-        <v>2171</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="248" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18745,7 +18745,7 @@
         <v>1783</v>
       </c>
       <c r="F248" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H248" t="s">
         <v>258</v>
@@ -18772,7 +18772,7 @@
         <v>1509</v>
       </c>
       <c r="P248" t="s">
-        <v>2113</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="249" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18789,7 +18789,7 @@
         <v>1783</v>
       </c>
       <c r="F249" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H249" t="s">
         <v>258</v>
@@ -18816,7 +18816,7 @@
         <v>1508</v>
       </c>
       <c r="P249" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="250" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18833,7 +18833,7 @@
         <v>1783</v>
       </c>
       <c r="F250" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H250" t="s">
         <v>258</v>
@@ -18860,7 +18860,7 @@
         <v>1507</v>
       </c>
       <c r="P250" t="s">
-        <v>2114</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="251" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18877,7 +18877,7 @@
         <v>1783</v>
       </c>
       <c r="F251" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H251" t="s">
         <v>258</v>
@@ -18904,7 +18904,7 @@
         <v>1506</v>
       </c>
       <c r="P251" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="252" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18921,7 +18921,7 @@
         <v>1783</v>
       </c>
       <c r="F252" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H252" t="s">
         <v>258</v>
@@ -18948,7 +18948,7 @@
         <v>1505</v>
       </c>
       <c r="P252" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="253" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18965,7 +18965,7 @@
         <v>1783</v>
       </c>
       <c r="F253" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H253" t="s">
         <v>258</v>
@@ -18992,7 +18992,7 @@
         <v>1504</v>
       </c>
       <c r="P253" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="254" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19009,7 +19009,7 @@
         <v>1783</v>
       </c>
       <c r="F254" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H254" t="s">
         <v>258</v>
@@ -19053,7 +19053,7 @@
         <v>1783</v>
       </c>
       <c r="F255" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H255" t="s">
         <v>258</v>
@@ -19080,7 +19080,7 @@
         <v>1502</v>
       </c>
       <c r="P255" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="256" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19100,7 +19100,7 @@
         <v>1940</v>
       </c>
       <c r="F256" s="16" t="s">
-        <v>2033</v>
+        <v>2024</v>
       </c>
       <c r="G256" s="10">
         <v>16103</v>
@@ -19130,7 +19130,7 @@
         <v>1501</v>
       </c>
       <c r="P256" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="257" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19141,7 +19141,7 @@
         <v>33</v>
       </c>
       <c r="C257" t="s">
-        <v>2181</v>
+        <v>2164</v>
       </c>
       <c r="D257" t="s">
         <v>1789</v>
@@ -19180,7 +19180,7 @@
         <v>1500</v>
       </c>
       <c r="P257" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="258" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19191,13 +19191,13 @@
         <v>33</v>
       </c>
       <c r="C258" t="s">
-        <v>2182</v>
+        <v>2165</v>
       </c>
       <c r="D258" t="s">
         <v>1792</v>
       </c>
       <c r="F258" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H258" t="s">
         <v>258</v>
@@ -19224,7 +19224,7 @@
         <v>1499</v>
       </c>
       <c r="P258" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="259" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19235,7 +19235,7 @@
         <v>33</v>
       </c>
       <c r="C259" t="s">
-        <v>2183</v>
+        <v>2166</v>
       </c>
       <c r="D259" t="s">
         <v>1792</v>
@@ -19244,7 +19244,7 @@
         <v>1950</v>
       </c>
       <c r="F259" s="16" t="s">
-        <v>2034</v>
+        <v>2025</v>
       </c>
       <c r="G259" s="10">
         <v>19238</v>
@@ -19274,7 +19274,7 @@
         <v>1498</v>
       </c>
       <c r="P259" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="260" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19285,13 +19285,13 @@
         <v>33</v>
       </c>
       <c r="C260" t="s">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="D260" t="s">
         <v>1793</v>
       </c>
       <c r="F260" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H260" t="s">
         <v>258</v>
@@ -19318,7 +19318,7 @@
         <v>1497</v>
       </c>
       <c r="P260" t="s">
-        <v>2090</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="261" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19329,7 +19329,7 @@
         <v>33</v>
       </c>
       <c r="C261" t="s">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="D261" t="s">
         <v>1793</v>
@@ -19338,7 +19338,7 @@
         <v>1940</v>
       </c>
       <c r="F261" s="16" t="s">
-        <v>2035</v>
+        <v>2026</v>
       </c>
       <c r="G261" s="10">
         <v>17759</v>
@@ -19368,7 +19368,7 @@
         <v>1496</v>
       </c>
       <c r="P261" t="s">
-        <v>2091</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="262" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19379,7 +19379,7 @@
         <v>33</v>
       </c>
       <c r="C262" t="s">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="D262" t="s">
         <v>1793</v>
@@ -19388,7 +19388,7 @@
         <v>1940</v>
       </c>
       <c r="F262" s="16" t="s">
-        <v>2035</v>
+        <v>2026</v>
       </c>
       <c r="G262" s="10">
         <v>17759</v>
@@ -19418,7 +19418,7 @@
         <v>1495</v>
       </c>
       <c r="P262" t="s">
-        <v>2133</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="263" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19429,13 +19429,13 @@
         <v>33</v>
       </c>
       <c r="C263" t="s">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="D263" t="s">
         <v>1793</v>
       </c>
       <c r="F263" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H263" t="s">
         <v>258</v>
@@ -19462,7 +19462,7 @@
         <v>1494</v>
       </c>
       <c r="P263" t="s">
-        <v>2134</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="264" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19479,7 +19479,7 @@
         <v>1794</v>
       </c>
       <c r="F264" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H264" t="s">
         <v>258</v>
@@ -19506,7 +19506,7 @@
         <v>1493</v>
       </c>
       <c r="P264" t="s">
-        <v>2134</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="265" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19523,7 +19523,7 @@
         <v>1794</v>
       </c>
       <c r="F265" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H265" t="s">
         <v>258</v>
@@ -19550,7 +19550,7 @@
         <v>1492</v>
       </c>
       <c r="P265" t="s">
-        <v>2134</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="266" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19567,7 +19567,7 @@
         <v>1794</v>
       </c>
       <c r="F266" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H266" t="s">
         <v>258</v>
@@ -19594,7 +19594,7 @@
         <v>1491</v>
       </c>
       <c r="P266" t="s">
-        <v>2092</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="267" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19611,7 +19611,7 @@
         <v>1794</v>
       </c>
       <c r="F267" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H267" t="s">
         <v>258</v>
@@ -19638,7 +19638,7 @@
         <v>1490</v>
       </c>
       <c r="P267" t="s">
-        <v>2172</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="268" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19655,7 +19655,7 @@
         <v>1794</v>
       </c>
       <c r="F268" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H268" t="s">
         <v>258</v>
@@ -19682,7 +19682,7 @@
         <v>1489</v>
       </c>
       <c r="P268" t="s">
-        <v>2135</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="269" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19699,7 +19699,7 @@
         <v>1794</v>
       </c>
       <c r="F269" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H269" t="s">
         <v>258</v>
@@ -19726,7 +19726,7 @@
         <v>1488</v>
       </c>
       <c r="P269" t="s">
-        <v>2172</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="270" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19743,7 +19743,7 @@
         <v>1794</v>
       </c>
       <c r="F270" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H270" t="s">
         <v>258</v>
@@ -19770,7 +19770,7 @@
         <v>1487</v>
       </c>
       <c r="P270" t="s">
-        <v>2136</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="271" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19787,7 +19787,7 @@
         <v>1794</v>
       </c>
       <c r="F271" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H271" t="s">
         <v>258</v>
@@ -19814,7 +19814,7 @@
         <v>1486</v>
       </c>
       <c r="P271" t="s">
-        <v>2137</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="272" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19831,7 +19831,7 @@
         <v>1794</v>
       </c>
       <c r="F272" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H272" t="s">
         <v>258</v>
@@ -19858,7 +19858,7 @@
         <v>1485</v>
       </c>
       <c r="P272" t="s">
-        <v>2136</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="273" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19875,7 +19875,7 @@
         <v>1795</v>
       </c>
       <c r="F273" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H273" t="s">
         <v>258</v>
@@ -19902,7 +19902,7 @@
         <v>1484</v>
       </c>
       <c r="P273" t="s">
-        <v>2136</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="274" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19919,7 +19919,7 @@
         <v>1796</v>
       </c>
       <c r="F274" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H274" t="s">
         <v>258</v>
@@ -19946,7 +19946,7 @@
         <v>1483</v>
       </c>
       <c r="P274" t="s">
-        <v>2184</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="275" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19963,7 +19963,7 @@
         <v>1796</v>
       </c>
       <c r="F275" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H275" t="s">
         <v>258</v>
@@ -19990,7 +19990,7 @@
         <v>1482</v>
       </c>
       <c r="P275" t="s">
-        <v>2136</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="276" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20007,7 +20007,7 @@
         <v>1797</v>
       </c>
       <c r="F276" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H276" t="s">
         <v>258</v>
@@ -20034,7 +20034,7 @@
         <v>1481</v>
       </c>
       <c r="P276" t="s">
-        <v>2136</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="277" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20054,7 +20054,7 @@
         <v>1950</v>
       </c>
       <c r="F277" s="16" t="s">
-        <v>2036</v>
+        <v>2027</v>
       </c>
       <c r="G277" s="10">
         <v>21534</v>
@@ -20084,7 +20084,7 @@
         <v>1480</v>
       </c>
       <c r="P277" t="s">
-        <v>2136</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="278" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20101,7 +20101,7 @@
         <v>1798</v>
       </c>
       <c r="F278" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H278" t="s">
         <v>258</v>
@@ -20128,7 +20128,7 @@
         <v>1479</v>
       </c>
       <c r="P278" t="s">
-        <v>2136</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="279" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20148,7 +20148,7 @@
         <v>1950</v>
       </c>
       <c r="F279" s="16" t="s">
-        <v>2036</v>
+        <v>2027</v>
       </c>
       <c r="G279" s="10">
         <v>21534</v>
@@ -20178,7 +20178,7 @@
         <v>1478</v>
       </c>
       <c r="P279" t="s">
-        <v>2136</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="280" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20198,7 +20198,7 @@
         <v>1950</v>
       </c>
       <c r="F280" s="16" t="s">
-        <v>2036</v>
+        <v>2027</v>
       </c>
       <c r="G280" s="10">
         <v>21534</v>
@@ -20228,7 +20228,7 @@
         <v>1477</v>
       </c>
       <c r="P280" t="s">
-        <v>2136</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="281" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20245,7 +20245,7 @@
         <v>1799</v>
       </c>
       <c r="F281" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H281" t="s">
         <v>258</v>
@@ -20272,7 +20272,7 @@
         <v>1476</v>
       </c>
       <c r="P281" t="s">
-        <v>2136</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="282" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20322,7 +20322,7 @@
         <v>1475</v>
       </c>
       <c r="P282" t="s">
-        <v>2138</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="283" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20367,7 +20367,7 @@
         <v>1474</v>
       </c>
       <c r="P283" t="s">
-        <v>2139</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="284" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20384,7 +20384,7 @@
         <v>1797</v>
       </c>
       <c r="F284" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H284" t="s">
         <v>258</v>
@@ -20411,7 +20411,7 @@
         <v>1473</v>
       </c>
       <c r="P284" t="s">
-        <v>2140</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="285" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20461,7 +20461,7 @@
         <v>1472</v>
       </c>
       <c r="P285" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="286" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20511,7 +20511,7 @@
         <v>1471</v>
       </c>
       <c r="P286" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="287" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20528,7 +20528,7 @@
         <v>1786</v>
       </c>
       <c r="F287" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H287" t="s">
         <v>258</v>
@@ -20555,7 +20555,7 @@
         <v>1470</v>
       </c>
       <c r="P287" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="288" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20605,7 +20605,7 @@
         <v>1469</v>
       </c>
       <c r="P288" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="289" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20655,7 +20655,7 @@
         <v>1468</v>
       </c>
       <c r="P289" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="290" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20705,7 +20705,7 @@
         <v>1467</v>
       </c>
       <c r="P290" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="291" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20722,7 +20722,7 @@
         <v>1803</v>
       </c>
       <c r="F291" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H291" t="s">
         <v>258</v>
@@ -20749,7 +20749,7 @@
         <v>1466</v>
       </c>
       <c r="P291" t="s">
-        <v>2115</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="292" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20766,7 +20766,7 @@
         <v>1803</v>
       </c>
       <c r="F292" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H292" t="s">
         <v>258</v>
@@ -20793,7 +20793,7 @@
         <v>1465</v>
       </c>
       <c r="P292" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="293" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20810,7 +20810,7 @@
         <v>1803</v>
       </c>
       <c r="F293" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H293" t="s">
         <v>258</v>
@@ -20837,7 +20837,7 @@
         <v>1464</v>
       </c>
       <c r="P293" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="294" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20854,7 +20854,7 @@
         <v>1803</v>
       </c>
       <c r="F294" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H294" t="s">
         <v>258</v>
@@ -20881,7 +20881,7 @@
         <v>1463</v>
       </c>
       <c r="P294" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="295" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20898,7 +20898,7 @@
         <v>1803</v>
       </c>
       <c r="F295" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H295" t="s">
         <v>258</v>
@@ -20925,7 +20925,7 @@
         <v>1462</v>
       </c>
       <c r="P295" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="296" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20942,7 +20942,7 @@
         <v>1803</v>
       </c>
       <c r="F296" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H296" t="s">
         <v>258</v>
@@ -20969,7 +20969,7 @@
         <v>1461</v>
       </c>
       <c r="P296" t="s">
-        <v>1961</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="297" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20986,7 +20986,7 @@
         <v>1803</v>
       </c>
       <c r="F297" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H297" t="s">
         <v>258</v>
@@ -21013,7 +21013,7 @@
         <v>1460</v>
       </c>
       <c r="P297" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="298" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21063,7 +21063,7 @@
         <v>1459</v>
       </c>
       <c r="P298" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="299" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21113,7 +21113,7 @@
         <v>1458</v>
       </c>
       <c r="P299" s="2" t="s">
-        <v>2173</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="300" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21163,7 +21163,7 @@
         <v>1457</v>
       </c>
       <c r="P300" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="301" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21213,7 +21213,7 @@
         <v>1456</v>
       </c>
       <c r="P301" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="302" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21263,7 +21263,7 @@
         <v>1455</v>
       </c>
       <c r="P302" t="s">
-        <v>2153</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="303" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21313,7 +21313,7 @@
         <v>1454</v>
       </c>
       <c r="P303" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="304" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21363,7 +21363,7 @@
         <v>1453</v>
       </c>
       <c r="P304" t="s">
-        <v>1967</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="305" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21413,7 +21413,7 @@
         <v>1452</v>
       </c>
       <c r="P305" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="306" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21463,7 +21463,7 @@
         <v>1451</v>
       </c>
       <c r="P306" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="307" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21513,7 +21513,7 @@
         <v>1450</v>
       </c>
       <c r="P307" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="308" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21530,7 +21530,7 @@
         <v>1813</v>
       </c>
       <c r="F308" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H308" t="s">
         <v>258</v>
@@ -21557,7 +21557,7 @@
         <v>1449</v>
       </c>
       <c r="P308" t="s">
-        <v>1970</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="309" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21607,7 +21607,7 @@
         <v>1448</v>
       </c>
       <c r="P309" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="310" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21657,7 +21657,7 @@
         <v>1447</v>
       </c>
       <c r="P310" t="s">
-        <v>2174</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="311" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21707,7 +21707,7 @@
         <v>1446</v>
       </c>
       <c r="P311" t="s">
-        <v>1971</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="312" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21757,7 +21757,7 @@
         <v>1445</v>
       </c>
       <c r="P312" t="s">
-        <v>2154</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="313" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21807,7 +21807,7 @@
         <v>1444</v>
       </c>
       <c r="P313" t="s">
-        <v>2110</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="314" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21857,7 +21857,7 @@
         <v>1443</v>
       </c>
       <c r="P314" t="s">
-        <v>1972</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="315" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21907,7 +21907,7 @@
         <v>1442</v>
       </c>
       <c r="P315" t="s">
-        <v>1973</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="316" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21957,7 +21957,7 @@
         <v>1441</v>
       </c>
       <c r="P316" t="s">
-        <v>2116</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="317" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22007,7 +22007,7 @@
         <v>1440</v>
       </c>
       <c r="P317" t="s">
-        <v>1974</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="318" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22057,7 +22057,7 @@
         <v>1439</v>
       </c>
       <c r="P318" t="s">
-        <v>1975</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="319" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22074,7 +22074,7 @@
         <v>1783</v>
       </c>
       <c r="F319" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H319" t="s">
         <v>258</v>
@@ -22101,7 +22101,7 @@
         <v>1438</v>
       </c>
       <c r="P319" t="s">
-        <v>2155</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="320" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22151,7 +22151,7 @@
         <v>1437</v>
       </c>
       <c r="P320" t="s">
-        <v>2156</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="321" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22168,7 +22168,7 @@
         <v>1783</v>
       </c>
       <c r="F321" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H321" t="s">
         <v>258</v>
@@ -22195,7 +22195,7 @@
         <v>1436</v>
       </c>
       <c r="P321" s="2" t="s">
-        <v>2163</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="322" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22212,7 +22212,7 @@
         <v>1783</v>
       </c>
       <c r="F322" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H322" t="s">
         <v>258</v>
@@ -22239,7 +22239,7 @@
         <v>1435</v>
       </c>
       <c r="P322" t="s">
-        <v>2141</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="323" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22256,7 +22256,7 @@
         <v>1783</v>
       </c>
       <c r="F323" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H323" t="s">
         <v>258</v>
@@ -22283,7 +22283,7 @@
         <v>1434</v>
       </c>
       <c r="P323" t="s">
-        <v>1976</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="324" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22300,7 +22300,7 @@
         <v>1783</v>
       </c>
       <c r="F324" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H324" t="s">
         <v>258</v>
@@ -22327,7 +22327,7 @@
         <v>1433</v>
       </c>
       <c r="P324" s="2" t="s">
-        <v>2179</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="325" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22377,7 +22377,7 @@
         <v>1432</v>
       </c>
       <c r="P325" t="s">
-        <v>1977</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="326" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22424,7 +22424,7 @@
         <v>1431</v>
       </c>
       <c r="P326" s="2" t="s">
-        <v>2168</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="327" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22441,7 +22441,7 @@
         <v>1783</v>
       </c>
       <c r="F327" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H327" t="s">
         <v>258</v>
@@ -22468,7 +22468,7 @@
         <v>1430</v>
       </c>
       <c r="P327" t="s">
-        <v>1978</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="328" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22485,7 +22485,7 @@
         <v>1783</v>
       </c>
       <c r="F328" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H328" t="s">
         <v>258</v>
@@ -22512,7 +22512,7 @@
         <v>1429</v>
       </c>
       <c r="P328" t="s">
-        <v>2157</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="329" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22529,7 +22529,7 @@
         <v>1803</v>
       </c>
       <c r="F329" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H329" t="s">
         <v>258</v>
@@ -22556,7 +22556,7 @@
         <v>1428</v>
       </c>
       <c r="P329" t="s">
-        <v>2158</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="330" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22606,7 +22606,7 @@
         <v>1427</v>
       </c>
       <c r="P330" t="s">
-        <v>1979</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="331" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22623,7 +22623,7 @@
         <v>1783</v>
       </c>
       <c r="F331" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H331" t="s">
         <v>258</v>
@@ -22650,7 +22650,7 @@
         <v>1426</v>
       </c>
       <c r="P331" t="s">
-        <v>1980</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="332" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22667,7 +22667,7 @@
         <v>1783</v>
       </c>
       <c r="F332" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H332" t="s">
         <v>258</v>
@@ -22694,7 +22694,7 @@
         <v>1425</v>
       </c>
       <c r="P332" t="s">
-        <v>1981</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="333" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22711,7 +22711,7 @@
         <v>1783</v>
       </c>
       <c r="F333" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H333" t="s">
         <v>258</v>
@@ -22738,7 +22738,7 @@
         <v>1424</v>
       </c>
       <c r="P333" t="s">
-        <v>2057</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="334" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22788,7 +22788,7 @@
         <v>1423</v>
       </c>
       <c r="P334" t="s">
-        <v>1982</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="335" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22838,7 +22838,7 @@
         <v>1422</v>
       </c>
       <c r="P335" t="s">
-        <v>1983</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="336" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22855,7 +22855,7 @@
         <v>1818</v>
       </c>
       <c r="F336" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H336" t="s">
         <v>258</v>
@@ -22882,7 +22882,7 @@
         <v>1421</v>
       </c>
       <c r="P336" t="s">
-        <v>2093</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="337" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22899,7 +22899,7 @@
         <v>1819</v>
       </c>
       <c r="F337" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H337" t="s">
         <v>258</v>
@@ -22926,7 +22926,7 @@
         <v>1420</v>
       </c>
       <c r="P337" t="s">
-        <v>1984</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="338" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22976,7 +22976,7 @@
         <v>1419</v>
       </c>
       <c r="P338" t="s">
-        <v>1985</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="339" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23026,7 +23026,7 @@
         <v>1418</v>
       </c>
       <c r="P339" t="s">
-        <v>2094</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="340" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23076,7 +23076,7 @@
         <v>1417</v>
       </c>
       <c r="P340" t="s">
-        <v>1986</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="341" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23126,7 +23126,7 @@
         <v>1416</v>
       </c>
       <c r="P341" t="s">
-        <v>1986</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="342" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23176,7 +23176,7 @@
         <v>1415</v>
       </c>
       <c r="P342" t="s">
-        <v>1987</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="343" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23226,7 +23226,7 @@
         <v>1414</v>
       </c>
       <c r="P343" t="s">
-        <v>1988</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="344" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23243,7 +23243,7 @@
         <v>1820</v>
       </c>
       <c r="F344" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H344" t="s">
         <v>258</v>
@@ -23270,7 +23270,7 @@
         <v>1413</v>
       </c>
       <c r="P344" t="s">
-        <v>1989</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="345" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23287,7 +23287,7 @@
         <v>1820</v>
       </c>
       <c r="F345" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H345" t="s">
         <v>258</v>
@@ -23314,7 +23314,7 @@
         <v>1412</v>
       </c>
       <c r="P345" t="s">
-        <v>1989</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="346" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23331,7 +23331,7 @@
         <v>1820</v>
       </c>
       <c r="F346" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H346" t="s">
         <v>258</v>
@@ -23358,7 +23358,7 @@
         <v>1411</v>
       </c>
       <c r="P346" t="s">
-        <v>2069</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="347" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23408,7 +23408,7 @@
         <v>1410</v>
       </c>
       <c r="P347" t="s">
-        <v>2047</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="348" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23425,7 +23425,7 @@
         <v>1790</v>
       </c>
       <c r="F348" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H348" t="s">
         <v>258</v>
@@ -23452,7 +23452,7 @@
         <v>1409</v>
       </c>
       <c r="P348" t="s">
-        <v>2098</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="349" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23502,7 +23502,7 @@
         <v>1408</v>
       </c>
       <c r="P349" t="s">
-        <v>1990</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="350" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23552,7 +23552,7 @@
         <v>1407</v>
       </c>
       <c r="P350" t="s">
-        <v>1990</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="351" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23602,7 +23602,7 @@
         <v>1580</v>
       </c>
       <c r="P351" t="s">
-        <v>1991</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="352" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23652,7 +23652,7 @@
         <v>1579</v>
       </c>
       <c r="P352" t="s">
-        <v>2095</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="353" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23752,7 +23752,7 @@
         <v>1577</v>
       </c>
       <c r="P354" t="s">
-        <v>1991</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="355" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23802,7 +23802,7 @@
         <v>1576</v>
       </c>
       <c r="P355" t="s">
-        <v>2143</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="356" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23852,7 +23852,7 @@
         <v>1575</v>
       </c>
       <c r="P356" t="s">
-        <v>1992</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="357" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23869,7 +23869,7 @@
         <v>1824</v>
       </c>
       <c r="F357" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H357" t="s">
         <v>258</v>
@@ -23896,7 +23896,7 @@
         <v>1574</v>
       </c>
       <c r="P357" t="s">
-        <v>2117</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="358" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23913,7 +23913,7 @@
         <v>1824</v>
       </c>
       <c r="F358" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H358" t="s">
         <v>258</v>
@@ -23940,7 +23940,7 @@
         <v>1573</v>
       </c>
       <c r="P358" t="s">
-        <v>1993</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="359" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23957,7 +23957,7 @@
         <v>1825</v>
       </c>
       <c r="F359" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H359" t="s">
         <v>258</v>
@@ -23984,7 +23984,7 @@
         <v>1572</v>
       </c>
       <c r="P359" t="s">
-        <v>2048</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="360" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24001,7 +24001,7 @@
         <v>1820</v>
       </c>
       <c r="F360" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H360" t="s">
         <v>258</v>
@@ -24028,7 +24028,7 @@
         <v>1571</v>
       </c>
       <c r="P360" t="s">
-        <v>2070</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="361" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24045,7 +24045,7 @@
         <v>1820</v>
       </c>
       <c r="F361" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H361" t="s">
         <v>258</v>
@@ -24072,7 +24072,7 @@
         <v>1570</v>
       </c>
       <c r="P361" t="s">
-        <v>2058</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="362" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24089,7 +24089,7 @@
         <v>1820</v>
       </c>
       <c r="F362" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H362" t="s">
         <v>258</v>
@@ -24116,7 +24116,7 @@
         <v>1569</v>
       </c>
       <c r="P362" t="s">
-        <v>2067</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="363" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24133,7 +24133,7 @@
         <v>1820</v>
       </c>
       <c r="F363" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H363" t="s">
         <v>258</v>
@@ -24160,7 +24160,7 @@
         <v>1568</v>
       </c>
       <c r="P363" t="s">
-        <v>2070</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="364" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24177,7 +24177,7 @@
         <v>1820</v>
       </c>
       <c r="F364" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H364" t="s">
         <v>258</v>
@@ -24204,7 +24204,7 @@
         <v>1567</v>
       </c>
       <c r="P364" t="s">
-        <v>1994</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="365" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24221,7 +24221,7 @@
         <v>1789</v>
       </c>
       <c r="F365" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H365" t="s">
         <v>258</v>
@@ -24248,7 +24248,7 @@
         <v>1566</v>
       </c>
       <c r="P365" t="s">
-        <v>2059</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="366" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24265,7 +24265,7 @@
         <v>1789</v>
       </c>
       <c r="F366" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H366" t="s">
         <v>258</v>
@@ -24292,7 +24292,7 @@
         <v>1565</v>
       </c>
       <c r="P366" t="s">
-        <v>2060</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="367" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24303,13 +24303,13 @@
         <v>1836</v>
       </c>
       <c r="C367" t="s">
-        <v>2175</v>
+        <v>2159</v>
       </c>
       <c r="D367" t="s">
         <v>1789</v>
       </c>
       <c r="F367" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H367" t="s">
         <v>258</v>
@@ -24336,7 +24336,7 @@
         <v>1564</v>
       </c>
       <c r="P367" t="s">
-        <v>2176</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="368" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24353,7 +24353,7 @@
         <v>1826</v>
       </c>
       <c r="F368" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H368" t="s">
         <v>258</v>
@@ -24380,7 +24380,7 @@
         <v>1563</v>
       </c>
       <c r="P368" t="s">
-        <v>2049</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="369" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24391,13 +24391,13 @@
         <v>1836</v>
       </c>
       <c r="C369" t="s">
-        <v>2175</v>
+        <v>2159</v>
       </c>
       <c r="D369" t="s">
         <v>1826</v>
       </c>
       <c r="F369" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H369" t="s">
         <v>258</v>
@@ -24424,7 +24424,7 @@
         <v>1562</v>
       </c>
       <c r="P369" t="s">
-        <v>2177</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="370" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24441,7 +24441,7 @@
         <v>1825</v>
       </c>
       <c r="F370" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H370" t="s">
         <v>258</v>
@@ -24468,7 +24468,7 @@
         <v>1561</v>
       </c>
       <c r="P370" t="s">
-        <v>2061</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="371" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24485,7 +24485,7 @@
         <v>1825</v>
       </c>
       <c r="F371" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H371" t="s">
         <v>258</v>
@@ -24512,7 +24512,7 @@
         <v>1560</v>
       </c>
       <c r="P371" t="s">
-        <v>2050</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="372" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24529,7 +24529,7 @@
         <v>1825</v>
       </c>
       <c r="F372" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H372" t="s">
         <v>258</v>
@@ -24556,7 +24556,7 @@
         <v>1559</v>
       </c>
       <c r="P372" t="s">
-        <v>2071</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="373" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24573,7 +24573,7 @@
         <v>1790</v>
       </c>
       <c r="F373" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H373" t="s">
         <v>258</v>
@@ -24600,7 +24600,7 @@
         <v>1558</v>
       </c>
       <c r="P373" t="s">
-        <v>2142</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="374" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24617,7 +24617,7 @@
         <v>300</v>
       </c>
       <c r="F374" s="15" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="H374" t="s">
         <v>258</v>
@@ -24644,7 +24644,7 @@
         <v>1557</v>
       </c>
       <c r="P374" t="s">
-        <v>2062</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="375" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24655,7 +24655,7 @@
         <v>41</v>
       </c>
       <c r="C375" t="s">
-        <v>2004</v>
+        <v>2177</v>
       </c>
       <c r="D375" t="s">
         <v>1827</v>
@@ -24694,18 +24694,18 @@
         <v>1556</v>
       </c>
       <c r="P375" t="s">
-        <v>2041</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="376" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="12" t="s">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="H376" t="s">
         <v>258</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="J376">
         <v>15535436850</v>
@@ -24714,7 +24714,7 @@
         <v>1032</v>
       </c>
       <c r="L376" s="5" t="s">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="M376">
         <v>7485</v>
@@ -24723,21 +24723,21 @@
         <v>8</v>
       </c>
       <c r="O376" s="3" t="s">
-        <v>2027</v>
+        <v>2018</v>
       </c>
       <c r="P376" t="s">
-        <v>2162</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="377" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="12" t="s">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="H377" t="s">
         <v>258</v>
       </c>
       <c r="I377" s="5" t="s">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="J377">
         <v>15100889283</v>
@@ -24746,7 +24746,7 @@
         <v>1032</v>
       </c>
       <c r="L377" s="5" t="s">
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="M377">
         <v>8130</v>
@@ -24755,21 +24755,21 @@
         <v>9</v>
       </c>
       <c r="O377" s="3" t="s">
-        <v>2028</v>
+        <v>2019</v>
       </c>
       <c r="P377" t="s">
-        <v>2161</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="378" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="12" t="s">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="H378" t="s">
         <v>258</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="J378">
         <v>15696545306</v>
@@ -24778,7 +24778,7 @@
         <v>1032</v>
       </c>
       <c r="L378" s="5" t="s">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="M378">
         <v>7506</v>
@@ -24787,21 +24787,21 @@
         <v>8</v>
       </c>
       <c r="O378" s="3" t="s">
-        <v>2029</v>
+        <v>2020</v>
       </c>
       <c r="P378" t="s">
-        <v>2160</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="379" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="12" t="s">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="H379" t="s">
         <v>258</v>
       </c>
       <c r="I379" s="5" t="s">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="J379">
         <v>15718356341</v>
@@ -24810,7 +24810,7 @@
         <v>1032</v>
       </c>
       <c r="L379" s="5" t="s">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="M379">
         <v>5599</v>
@@ -24819,21 +24819,21 @@
         <v>6</v>
       </c>
       <c r="O379" s="3" t="s">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="P379" t="s">
-        <v>2159</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="380" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="12" t="s">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="H380" t="s">
         <v>258</v>
       </c>
       <c r="I380" s="5" t="s">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="J380">
         <v>15100317174</v>
@@ -24842,7 +24842,7 @@
         <v>1032</v>
       </c>
       <c r="L380" s="5" t="s">
-        <v>2025</v>
+        <v>2016</v>
       </c>
       <c r="M380">
         <v>3952</v>
@@ -24851,7 +24851,7 @@
         <v>4</v>
       </c>
       <c r="O380" s="3" t="s">
-        <v>2031</v>
+        <v>2022</v>
       </c>
       <c r="P380" t="s">
         <v>1871</v>
@@ -24859,7 +24859,7 @@
     </row>
     <row r="381" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="12" t="s">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="B381" t="s">
         <v>39</v>
@@ -24868,7 +24868,7 @@
         <v>258</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="J381">
         <v>15718352831</v>
@@ -24877,7 +24877,7 @@
         <v>1032</v>
       </c>
       <c r="L381" s="5" t="s">
-        <v>2026</v>
+        <v>2017</v>
       </c>
       <c r="M381">
         <v>3954</v>
@@ -24886,7 +24886,7 @@
         <v>4</v>
       </c>
       <c r="O381" s="3" t="s">
-        <v>2032</v>
+        <v>2023</v>
       </c>
       <c r="P381" t="s">
         <v>146</v>

--- a/docs/memorias coletivas base dados.xlsx
+++ b/docs/memorias coletivas base dados.xlsx
@@ -6817,7 +6817,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P381" totalsRowShown="0">
-  <autoFilter ref="A1:P381"/>
+  <autoFilter ref="A1:P381">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1941"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="16">
     <tableColumn id="1" name="filename"/>
     <tableColumn id="2" name="proprietario"/>
@@ -7130,10 +7136,10 @@
   <dimension ref="A1:P381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
+      <selection pane="bottomRight" activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7199,7 +7205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>377</v>
       </c>
@@ -7249,7 +7255,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>378</v>
       </c>
@@ -7299,7 +7305,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>379</v>
       </c>
@@ -7349,7 +7355,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>380</v>
       </c>
@@ -7399,7 +7405,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>381</v>
       </c>
@@ -7449,7 +7455,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>382</v>
       </c>
@@ -7499,7 +7505,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>383</v>
       </c>
@@ -7549,7 +7555,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>384</v>
       </c>
@@ -7599,7 +7605,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>385</v>
       </c>
@@ -7649,7 +7655,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>386</v>
       </c>
@@ -7699,7 +7705,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>387</v>
       </c>
@@ -7749,7 +7755,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>301</v>
       </c>
@@ -7799,7 +7805,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>302</v>
       </c>
@@ -7849,7 +7855,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>303</v>
       </c>
@@ -7899,7 +7905,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>304</v>
       </c>
@@ -7949,7 +7955,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>305</v>
       </c>
@@ -7999,7 +8005,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>306</v>
       </c>
@@ -8049,7 +8055,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>307</v>
       </c>
@@ -8099,7 +8105,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>308</v>
       </c>
@@ -8149,7 +8155,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>309</v>
       </c>
@@ -8199,7 +8205,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>310</v>
       </c>
@@ -8249,7 +8255,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>311</v>
       </c>
@@ -8299,7 +8305,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>312</v>
       </c>
@@ -8349,7 +8355,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>313</v>
       </c>
@@ -8399,7 +8405,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>314</v>
       </c>
@@ -8449,7 +8455,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>315</v>
       </c>
@@ -8499,7 +8505,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>316</v>
       </c>
@@ -8549,7 +8555,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>317</v>
       </c>
@@ -8599,7 +8605,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>318</v>
       </c>
@@ -8649,7 +8655,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>319</v>
       </c>
@@ -8699,7 +8705,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>320</v>
       </c>
@@ -8749,7 +8755,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>321</v>
       </c>
@@ -8799,7 +8805,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>322</v>
       </c>
@@ -8849,7 +8855,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>323</v>
       </c>
@@ -8899,7 +8905,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>324</v>
       </c>
@@ -8949,7 +8955,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>325</v>
       </c>
@@ -8999,7 +9005,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>326</v>
       </c>
@@ -9049,7 +9055,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>327</v>
       </c>
@@ -9099,7 +9105,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>328</v>
       </c>
@@ -9149,7 +9155,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>329</v>
       </c>
@@ -9199,7 +9205,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>330</v>
       </c>
@@ -9249,7 +9255,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>331</v>
       </c>
@@ -9299,7 +9305,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>332</v>
       </c>
@@ -9349,7 +9355,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>333</v>
       </c>
@@ -9399,7 +9405,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>334</v>
       </c>
@@ -9449,7 +9455,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>335</v>
       </c>
@@ -9499,7 +9505,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>336</v>
       </c>
@@ -9549,7 +9555,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>337</v>
       </c>
@@ -9599,7 +9605,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>338</v>
       </c>
@@ -9649,7 +9655,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>339</v>
       </c>
@@ -9699,7 +9705,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>340</v>
       </c>
@@ -9749,7 +9755,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>341</v>
       </c>
@@ -9799,7 +9805,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>342</v>
       </c>
@@ -9849,7 +9855,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>343</v>
       </c>
@@ -9899,7 +9905,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>344</v>
       </c>
@@ -9949,7 +9955,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>345</v>
       </c>
@@ -9999,7 +10005,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>346</v>
       </c>
@@ -10049,7 +10055,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>347</v>
       </c>
@@ -10099,7 +10105,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>348</v>
       </c>
@@ -10149,7 +10155,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>349</v>
       </c>
@@ -10199,7 +10205,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>350</v>
       </c>
@@ -10249,7 +10255,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>351</v>
       </c>
@@ -10299,7 +10305,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>352</v>
       </c>
@@ -10349,7 +10355,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>353</v>
       </c>
@@ -10399,7 +10405,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>354</v>
       </c>
@@ -10449,7 +10455,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>355</v>
       </c>
@@ -10499,7 +10505,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>356</v>
       </c>
@@ -10549,7 +10555,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>357</v>
       </c>
@@ -10599,7 +10605,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>358</v>
       </c>
@@ -10649,7 +10655,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>359</v>
       </c>
@@ -10699,7 +10705,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>360</v>
       </c>
@@ -10749,7 +10755,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>361</v>
       </c>
@@ -10799,7 +10805,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>362</v>
       </c>
@@ -10849,7 +10855,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>363</v>
       </c>
@@ -10899,7 +10905,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>364</v>
       </c>
@@ -10949,7 +10955,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>365</v>
       </c>
@@ -10999,7 +11005,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>366</v>
       </c>
@@ -11049,7 +11055,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>367</v>
       </c>
@@ -11099,7 +11105,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>368</v>
       </c>
@@ -11149,7 +11155,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -11199,7 +11205,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>369</v>
       </c>
@@ -11249,7 +11255,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>370</v>
       </c>
@@ -11299,7 +11305,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>371</v>
       </c>
@@ -11349,7 +11355,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>372</v>
       </c>
@@ -11399,7 +11405,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>373</v>
       </c>
@@ -11449,7 +11455,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>374</v>
       </c>
@@ -11499,7 +11505,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>375</v>
       </c>
@@ -11549,7 +11555,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>376</v>
       </c>
@@ -11599,7 +11605,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -11649,7 +11655,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -11699,7 +11705,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -11749,7 +11755,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -11799,7 +11805,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -11849,7 +11855,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -11899,7 +11905,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -11949,7 +11955,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -11999,7 +12005,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -12049,7 +12055,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -12099,7 +12105,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -12149,7 +12155,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -12199,7 +12205,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -12249,7 +12255,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -12299,7 +12305,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -12349,7 +12355,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>22</v>
       </c>
@@ -12399,7 +12405,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>388</v>
       </c>
@@ -12443,7 +12449,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>389</v>
       </c>
@@ -12487,7 +12493,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>390</v>
       </c>
@@ -12531,7 +12537,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>391</v>
       </c>
@@ -12575,7 +12581,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>392</v>
       </c>
@@ -12619,7 +12625,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>393</v>
       </c>
@@ -12663,7 +12669,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>394</v>
       </c>
@@ -12707,7 +12713,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>395</v>
       </c>
@@ -12751,7 +12757,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>396</v>
       </c>
@@ -12795,7 +12801,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>397</v>
       </c>
@@ -12839,7 +12845,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>398</v>
       </c>
@@ -12883,7 +12889,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>399</v>
       </c>
@@ -12927,7 +12933,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>400</v>
       </c>
@@ -12971,7 +12977,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>401</v>
       </c>
@@ -13015,7 +13021,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>402</v>
       </c>
@@ -13059,7 +13065,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>403</v>
       </c>
@@ -13103,7 +13109,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>404</v>
       </c>
@@ -13147,7 +13153,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>405</v>
       </c>
@@ -13191,7 +13197,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>406</v>
       </c>
@@ -13235,7 +13241,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>407</v>
       </c>
@@ -13279,7 +13285,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>408</v>
       </c>
@@ -13323,7 +13329,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>409</v>
       </c>
@@ -13367,7 +13373,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>410</v>
       </c>
@@ -13411,7 +13417,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>411</v>
       </c>
@@ -13455,7 +13461,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>412</v>
       </c>
@@ -13499,7 +13505,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>413</v>
       </c>
@@ -13543,7 +13549,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>414</v>
       </c>
@@ -13587,7 +13593,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>415</v>
       </c>
@@ -13631,7 +13637,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>416</v>
       </c>
@@ -13675,7 +13681,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>417</v>
       </c>
@@ -13719,7 +13725,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>418</v>
       </c>
@@ -13763,7 +13769,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>419</v>
       </c>
@@ -13807,7 +13813,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>420</v>
       </c>
@@ -13851,7 +13857,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>421</v>
       </c>
@@ -13895,7 +13901,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>422</v>
       </c>
@@ -13939,7 +13945,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>423</v>
       </c>
@@ -13983,7 +13989,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>424</v>
       </c>
@@ -14027,7 +14033,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>425</v>
       </c>
@@ -14071,7 +14077,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>426</v>
       </c>
@@ -14115,7 +14121,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>427</v>
       </c>
@@ -14159,7 +14165,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>428</v>
       </c>
@@ -14203,7 +14209,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>429</v>
       </c>
@@ -14247,7 +14253,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>430</v>
       </c>
@@ -14291,7 +14297,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>431</v>
       </c>
@@ -14335,7 +14341,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>432</v>
       </c>
@@ -14379,7 +14385,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>433</v>
       </c>
@@ -14423,7 +14429,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>434</v>
       </c>
@@ -14467,7 +14473,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>435</v>
       </c>
@@ -14511,7 +14517,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>436</v>
       </c>
@@ -14555,7 +14561,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>437</v>
       </c>
@@ -14599,7 +14605,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>438</v>
       </c>
@@ -14643,7 +14649,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>439</v>
       </c>
@@ -14687,7 +14693,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>440</v>
       </c>
@@ -14731,7 +14737,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>441</v>
       </c>
@@ -14775,7 +14781,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>442</v>
       </c>
@@ -14819,7 +14825,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>443</v>
       </c>
@@ -14863,7 +14869,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>444</v>
       </c>
@@ -14907,7 +14913,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>445</v>
       </c>
@@ -14951,7 +14957,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>446</v>
       </c>
@@ -14995,7 +15001,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>447</v>
       </c>
@@ -15039,7 +15045,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>448</v>
       </c>
@@ -15083,7 +15089,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>449</v>
       </c>
@@ -15127,7 +15133,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>450</v>
       </c>
@@ -15171,7 +15177,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>451</v>
       </c>
@@ -15215,7 +15221,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>452</v>
       </c>
@@ -15259,7 +15265,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>453</v>
       </c>
@@ -15303,7 +15309,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>454</v>
       </c>
@@ -15347,7 +15353,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>455</v>
       </c>
@@ -15391,7 +15397,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>456</v>
       </c>
@@ -15435,7 +15441,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>457</v>
       </c>
@@ -15479,7 +15485,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>458</v>
       </c>
@@ -15523,7 +15529,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>459</v>
       </c>
@@ -15567,7 +15573,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>460</v>
       </c>
@@ -15611,7 +15617,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>461</v>
       </c>
@@ -15655,7 +15661,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>462</v>
       </c>
@@ -15699,7 +15705,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>463</v>
       </c>
@@ -15743,7 +15749,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>464</v>
       </c>
@@ -15787,7 +15793,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>465</v>
       </c>
@@ -15831,7 +15837,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>466</v>
       </c>
@@ -15875,7 +15881,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>467</v>
       </c>
@@ -15919,7 +15925,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>468</v>
       </c>
@@ -15963,7 +15969,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>469</v>
       </c>
@@ -16007,7 +16013,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>470</v>
       </c>
@@ -16051,7 +16057,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>471</v>
       </c>
@@ -16095,7 +16101,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>472</v>
       </c>
@@ -16139,7 +16145,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>473</v>
       </c>
@@ -16183,7 +16189,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>474</v>
       </c>
@@ -16227,7 +16233,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>475</v>
       </c>
@@ -16271,7 +16277,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>476</v>
       </c>
@@ -16315,7 +16321,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>477</v>
       </c>
@@ -16365,7 +16371,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>478</v>
       </c>
@@ -16415,7 +16421,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>479</v>
       </c>
@@ -16465,7 +16471,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>480</v>
       </c>
@@ -16523,7 +16529,7 @@
         <v>1785</v>
       </c>
       <c r="E199" s="6">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F199" s="15">
         <v>1941</v>
@@ -16559,7 +16565,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>482</v>
       </c>
@@ -16603,7 +16609,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>483</v>
       </c>
@@ -16647,7 +16653,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>484</v>
       </c>
@@ -16691,7 +16697,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>485</v>
       </c>
@@ -16735,7 +16741,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>486</v>
       </c>
@@ -16779,7 +16785,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>487</v>
       </c>
@@ -16823,7 +16829,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>488</v>
       </c>
@@ -16867,7 +16873,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>489</v>
       </c>
@@ -16911,7 +16917,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>490</v>
       </c>
@@ -16955,7 +16961,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>491</v>
       </c>
@@ -16999,7 +17005,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>492</v>
       </c>
@@ -17043,7 +17049,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>493</v>
       </c>
@@ -17087,7 +17093,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>494</v>
       </c>
@@ -17131,7 +17137,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>495</v>
       </c>
@@ -17175,7 +17181,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>496</v>
       </c>
@@ -17219,7 +17225,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>497</v>
       </c>
@@ -17263,7 +17269,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>498</v>
       </c>
@@ -17307,7 +17313,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>499</v>
       </c>
@@ -17351,7 +17357,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>500</v>
       </c>
@@ -17395,7 +17401,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>501</v>
       </c>
@@ -17439,7 +17445,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>502</v>
       </c>
@@ -17483,7 +17489,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>503</v>
       </c>
@@ -17527,7 +17533,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>504</v>
       </c>
@@ -17571,7 +17577,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>505</v>
       </c>
@@ -17615,7 +17621,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>506</v>
       </c>
@@ -17659,7 +17665,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>507</v>
       </c>
@@ -17703,7 +17709,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>508</v>
       </c>
@@ -17747,7 +17753,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>509</v>
       </c>
@@ -17791,7 +17797,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>510</v>
       </c>
@@ -17835,7 +17841,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>511</v>
       </c>
@@ -17879,7 +17885,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>512</v>
       </c>
@@ -17923,7 +17929,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>513</v>
       </c>
@@ -17973,7 +17979,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>514</v>
       </c>
@@ -18023,7 +18029,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>515</v>
       </c>
@@ -18073,7 +18079,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>516</v>
       </c>
@@ -18123,7 +18129,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>517</v>
       </c>
@@ -18173,7 +18179,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>518</v>
       </c>
@@ -18223,7 +18229,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>519</v>
       </c>
@@ -18273,7 +18279,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>520</v>
       </c>
@@ -18323,7 +18329,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>521</v>
       </c>
@@ -18367,7 +18373,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>522</v>
       </c>
@@ -18417,7 +18423,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>523</v>
       </c>
@@ -18461,7 +18467,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>524</v>
       </c>
@@ -18505,7 +18511,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>525</v>
       </c>
@@ -18549,7 +18555,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>526</v>
       </c>
@@ -18599,7 +18605,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>527</v>
       </c>
@@ -18643,7 +18649,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>528</v>
       </c>
@@ -18687,7 +18693,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>529</v>
       </c>
@@ -18731,7 +18737,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>530</v>
       </c>
@@ -18775,7 +18781,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>531</v>
       </c>
@@ -18819,7 +18825,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>532</v>
       </c>
@@ -18863,7 +18869,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>533</v>
       </c>
@@ -18907,7 +18913,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>534</v>
       </c>
@@ -18951,7 +18957,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>535</v>
       </c>
@@ -18995,7 +19001,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>536</v>
       </c>
@@ -19039,7 +19045,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>537</v>
       </c>
@@ -19083,7 +19089,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>538</v>
       </c>
@@ -19133,7 +19139,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>539</v>
       </c>
@@ -19183,7 +19189,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>540</v>
       </c>
@@ -19227,7 +19233,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>541</v>
       </c>
@@ -19277,7 +19283,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>542</v>
       </c>
@@ -19321,7 +19327,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>543</v>
       </c>
@@ -19371,7 +19377,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>544</v>
       </c>
@@ -19421,7 +19427,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>545</v>
       </c>
@@ -19465,7 +19471,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>546</v>
       </c>
@@ -19509,7 +19515,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>547</v>
       </c>
@@ -19553,7 +19559,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>548</v>
       </c>
@@ -19597,7 +19603,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>549</v>
       </c>
@@ -19641,7 +19647,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>550</v>
       </c>
@@ -19685,7 +19691,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>551</v>
       </c>
@@ -19729,7 +19735,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>552</v>
       </c>
@@ -19773,7 +19779,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>553</v>
       </c>
@@ -19817,7 +19823,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>554</v>
       </c>
@@ -19861,7 +19867,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>555</v>
       </c>
@@ -19905,7 +19911,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>556</v>
       </c>
@@ -19949,7 +19955,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>557</v>
       </c>
@@ -19993,7 +19999,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>558</v>
       </c>
@@ -20037,7 +20043,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>559</v>
       </c>
@@ -20087,7 +20093,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>560</v>
       </c>
@@ -20131,7 +20137,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>561</v>
       </c>
@@ -20181,7 +20187,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>562</v>
       </c>
@@ -20231,7 +20237,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>563</v>
       </c>
@@ -20275,7 +20281,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>564</v>
       </c>
@@ -20325,7 +20331,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>565</v>
       </c>
@@ -20370,7 +20376,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>566</v>
       </c>
@@ -20414,7 +20420,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>567</v>
       </c>
@@ -20464,7 +20470,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>568</v>
       </c>
@@ -20514,7 +20520,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>569</v>
       </c>
@@ -20558,7 +20564,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>570</v>
       </c>
@@ -20608,7 +20614,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>571</v>
       </c>
@@ -20658,7 +20664,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>572</v>
       </c>
@@ -20708,7 +20714,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>573</v>
       </c>
@@ -20752,7 +20758,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>574</v>
       </c>
@@ -20796,7 +20802,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>575</v>
       </c>
@@ -20840,7 +20846,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>576</v>
       </c>
@@ -20884,7 +20890,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>577</v>
       </c>
@@ -20928,7 +20934,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>578</v>
       </c>
@@ -20972,7 +20978,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>579</v>
       </c>
@@ -21016,7 +21022,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>580</v>
       </c>
@@ -21066,7 +21072,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>581</v>
       </c>
@@ -21116,7 +21122,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>582</v>
       </c>
@@ -21166,7 +21172,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>583</v>
       </c>
@@ -21216,7 +21222,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>584</v>
       </c>
@@ -21266,7 +21272,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>585</v>
       </c>
@@ -21316,7 +21322,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>586</v>
       </c>
@@ -21366,7 +21372,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>587</v>
       </c>
@@ -21416,7 +21422,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>588</v>
       </c>
@@ -21466,7 +21472,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>589</v>
       </c>
@@ -21516,7 +21522,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>590</v>
       </c>
@@ -21560,7 +21566,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>591</v>
       </c>
@@ -21610,7 +21616,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>592</v>
       </c>
@@ -21660,7 +21666,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>593</v>
       </c>
@@ -21710,7 +21716,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>594</v>
       </c>
@@ -21760,7 +21766,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="313" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>595</v>
       </c>
@@ -21810,7 +21816,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>596</v>
       </c>
@@ -21860,7 +21866,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>597</v>
       </c>
@@ -21910,7 +21916,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>598</v>
       </c>
@@ -21960,7 +21966,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>599</v>
       </c>
@@ -22010,7 +22016,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>600</v>
       </c>
@@ -22060,7 +22066,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>601</v>
       </c>
@@ -22104,7 +22110,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>602</v>
       </c>
@@ -22154,7 +22160,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>603</v>
       </c>
@@ -22198,7 +22204,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="322" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>604</v>
       </c>
@@ -22242,7 +22248,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>605</v>
       </c>
@@ -22286,7 +22292,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>606</v>
       </c>
@@ -22330,7 +22336,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>607</v>
       </c>
@@ -22380,7 +22386,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>608</v>
       </c>
@@ -22427,7 +22433,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>609</v>
       </c>
@@ -22471,7 +22477,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="328" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>610</v>
       </c>
@@ -22515,7 +22521,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>611</v>
       </c>
@@ -22559,7 +22565,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>612</v>
       </c>
@@ -22609,7 +22615,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>613</v>
       </c>
@@ -22653,7 +22659,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>614</v>
       </c>
@@ -22697,7 +22703,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>615</v>
       </c>
@@ -22741,7 +22747,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>616</v>
       </c>
@@ -22791,7 +22797,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>617</v>
       </c>
@@ -22841,7 +22847,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="336" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>618</v>
       </c>
@@ -22885,7 +22891,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>619</v>
       </c>
@@ -22929,7 +22935,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>620</v>
       </c>
@@ -22979,7 +22985,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>621</v>
       </c>
@@ -23029,7 +23035,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>622</v>
       </c>
@@ -23079,7 +23085,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>623</v>
       </c>
@@ -23129,7 +23135,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>624</v>
       </c>
@@ -23179,7 +23185,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>625</v>
       </c>
@@ -23229,7 +23235,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>626</v>
       </c>
@@ -23273,7 +23279,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="345" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>627</v>
       </c>
@@ -23317,7 +23323,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>628</v>
       </c>
@@ -23361,7 +23367,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>629</v>
       </c>
@@ -23411,7 +23417,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>630</v>
       </c>
@@ -23455,7 +23461,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>631</v>
       </c>
@@ -23505,7 +23511,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>632</v>
       </c>
@@ -23555,7 +23561,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>633</v>
       </c>
@@ -23605,7 +23611,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="352" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>634</v>
       </c>
@@ -23655,7 +23661,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>635</v>
       </c>
@@ -23705,7 +23711,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>636</v>
       </c>
@@ -23755,7 +23761,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>637</v>
       </c>
@@ -23805,7 +23811,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>638</v>
       </c>
@@ -23855,7 +23861,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>639</v>
       </c>
@@ -23899,7 +23905,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>640</v>
       </c>
@@ -23943,7 +23949,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>641</v>
       </c>
@@ -23987,7 +23993,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>642</v>
       </c>
@@ -24031,7 +24037,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>643</v>
       </c>
@@ -24075,7 +24081,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>644</v>
       </c>
@@ -24119,7 +24125,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>645</v>
       </c>
@@ -24163,7 +24169,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>646</v>
       </c>
@@ -24207,7 +24213,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>647</v>
       </c>
@@ -24251,7 +24257,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>648</v>
       </c>
@@ -24295,7 +24301,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>649</v>
       </c>
@@ -24339,7 +24345,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>650</v>
       </c>
@@ -24383,7 +24389,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>651</v>
       </c>
@@ -24427,7 +24433,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>652</v>
       </c>
@@ -24471,7 +24477,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>653</v>
       </c>
@@ -24515,7 +24521,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>654</v>
       </c>
@@ -24559,7 +24565,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>655</v>
       </c>
@@ -24603,7 +24609,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>656</v>
       </c>
@@ -24647,7 +24653,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>657</v>
       </c>
@@ -24697,7 +24703,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="12" t="s">
         <v>2000</v>
       </c>
@@ -24729,7 +24735,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="12" t="s">
         <v>2001</v>
       </c>
@@ -24761,7 +24767,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="12" t="s">
         <v>2002</v>
       </c>
@@ -24793,7 +24799,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="12" t="s">
         <v>2003</v>
       </c>
@@ -24825,7 +24831,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="12" t="s">
         <v>2004</v>
       </c>
@@ -24857,7 +24863,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="12" t="s">
         <v>2005</v>
       </c>

--- a/docs/memorias coletivas base dados.xlsx
+++ b/docs/memorias coletivas base dados.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmanacas\Dropbox\mycode\google_appengine\memoriascoletivas\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0121102-95B6-49EA-A7EF-6A3AB8688304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="480" windowWidth="18840" windowHeight="8745"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,11 +20,11 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="flickr" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="flickr" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" url="C:\Users\pmanacas\Desktop\flickr.xml" htmlTables="1"/>
   </connection>
-  <connection id="2" name="flickr1" type="4" refreshedVersion="0" background="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="flickr1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" url="C:\Users\pmanacas\Desktop\flickr.xml" htmlTables="1"/>
   </connection>
 </connections>
@@ -6591,7 +6597,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
@@ -6730,6 +6736,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -6816,31 +6825,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P381" totalsRowShown="0">
-  <autoFilter ref="A1:P381">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="1941"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P381" totalsRowShown="0">
+  <autoFilter ref="A1:P381" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="filename"/>
-    <tableColumn id="2" name="proprietario"/>
-    <tableColumn id="3" name="legenda"/>
-    <tableColumn id="4" name="processo"/>
-    <tableColumn id="5" name="decada" dataDxfId="6"/>
-    <tableColumn id="6" name="data_vaga" dataDxfId="5"/>
-    <tableColumn id="7" name="data_precisa" dataDxfId="4"/>
-    <tableColumn id="8" name="local"/>
-    <tableColumn id="9" name="flickr_title" dataDxfId="3"/>
-    <tableColumn id="10" name="flickr_id"/>
-    <tableColumn id="11" name="flickr_owner" dataDxfId="2"/>
-    <tableColumn id="12" name="flickr_secret" dataDxfId="1"/>
-    <tableColumn id="13" name="flickr_server"/>
-    <tableColumn id="14" name="flickr_farm"/>
-    <tableColumn id="15" name="flickr_originalsecret" dataDxfId="0"/>
-    <tableColumn id="16" name="tags"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="filename"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="proprietario"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="legenda"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="processo"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="decada" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="data_vaga" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="data_precisa" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="local"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="flickr_title" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="flickr_id"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="flickr_owner" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="flickr_secret" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="flickr_server"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="flickr_farm"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="flickr_originalsecret" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="tags"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6889,7 +6892,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6922,9 +6925,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6957,6 +6977,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7132,14 +7169,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E199" sqref="E199"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7205,7 +7242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>377</v>
       </c>
@@ -7255,7 +7292,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>378</v>
       </c>
@@ -7305,7 +7342,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>379</v>
       </c>
@@ -7355,7 +7392,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>380</v>
       </c>
@@ -7405,7 +7442,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>381</v>
       </c>
@@ -7455,7 +7492,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>382</v>
       </c>
@@ -7505,7 +7542,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>383</v>
       </c>
@@ -7555,7 +7592,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>384</v>
       </c>
@@ -7605,7 +7642,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>385</v>
       </c>
@@ -7655,7 +7692,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>386</v>
       </c>
@@ -7705,7 +7742,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>387</v>
       </c>
@@ -7755,7 +7792,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>301</v>
       </c>
@@ -7805,7 +7842,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>302</v>
       </c>
@@ -7855,7 +7892,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>303</v>
       </c>
@@ -7905,7 +7942,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>304</v>
       </c>
@@ -7955,7 +7992,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>305</v>
       </c>
@@ -8005,7 +8042,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>306</v>
       </c>
@@ -8055,7 +8092,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>307</v>
       </c>
@@ -8105,7 +8142,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>308</v>
       </c>
@@ -8155,7 +8192,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>309</v>
       </c>
@@ -8205,7 +8242,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>310</v>
       </c>
@@ -8255,7 +8292,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>311</v>
       </c>
@@ -8305,7 +8342,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>312</v>
       </c>
@@ -8355,7 +8392,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>313</v>
       </c>
@@ -8405,7 +8442,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>314</v>
       </c>
@@ -8455,7 +8492,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>315</v>
       </c>
@@ -8505,7 +8542,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>316</v>
       </c>
@@ -8555,7 +8592,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>317</v>
       </c>
@@ -8605,7 +8642,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>318</v>
       </c>
@@ -8655,7 +8692,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>319</v>
       </c>
@@ -8705,7 +8742,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>320</v>
       </c>
@@ -8755,7 +8792,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>321</v>
       </c>
@@ -8805,7 +8842,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>322</v>
       </c>
@@ -8855,7 +8892,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>323</v>
       </c>
@@ -8905,7 +8942,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>324</v>
       </c>
@@ -8955,7 +8992,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>325</v>
       </c>
@@ -9005,7 +9042,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>326</v>
       </c>
@@ -9055,7 +9092,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>327</v>
       </c>
@@ -9105,7 +9142,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>328</v>
       </c>
@@ -9155,7 +9192,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>329</v>
       </c>
@@ -9205,7 +9242,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>330</v>
       </c>
@@ -9255,7 +9292,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>331</v>
       </c>
@@ -9305,7 +9342,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>332</v>
       </c>
@@ -9355,7 +9392,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>333</v>
       </c>
@@ -9405,7 +9442,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>334</v>
       </c>
@@ -9455,7 +9492,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>335</v>
       </c>
@@ -9505,7 +9542,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>336</v>
       </c>
@@ -9555,7 +9592,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>337</v>
       </c>
@@ -9605,7 +9642,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>338</v>
       </c>
@@ -9655,7 +9692,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>339</v>
       </c>
@@ -9705,7 +9742,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>340</v>
       </c>
@@ -9755,7 +9792,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>341</v>
       </c>
@@ -9805,7 +9842,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>342</v>
       </c>
@@ -9855,7 +9892,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>343</v>
       </c>
@@ -9905,7 +9942,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>344</v>
       </c>
@@ -9955,7 +9992,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>345</v>
       </c>
@@ -10005,7 +10042,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>346</v>
       </c>
@@ -10055,7 +10092,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>347</v>
       </c>
@@ -10105,7 +10142,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>348</v>
       </c>
@@ -10155,7 +10192,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>349</v>
       </c>
@@ -10205,7 +10242,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>350</v>
       </c>
@@ -10255,7 +10292,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>351</v>
       </c>
@@ -10305,7 +10342,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>352</v>
       </c>
@@ -10355,7 +10392,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>353</v>
       </c>
@@ -10405,7 +10442,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>354</v>
       </c>
@@ -10455,7 +10492,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>355</v>
       </c>
@@ -10505,7 +10542,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>356</v>
       </c>
@@ -10555,7 +10592,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>357</v>
       </c>
@@ -10605,7 +10642,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>358</v>
       </c>
@@ -10655,7 +10692,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>359</v>
       </c>
@@ -10705,7 +10742,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>360</v>
       </c>
@@ -10755,7 +10792,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>361</v>
       </c>
@@ -10805,7 +10842,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>362</v>
       </c>
@@ -10855,7 +10892,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>363</v>
       </c>
@@ -10905,7 +10942,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>364</v>
       </c>
@@ -10955,7 +10992,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>365</v>
       </c>
@@ -11005,7 +11042,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>366</v>
       </c>
@@ -11055,7 +11092,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>367</v>
       </c>
@@ -11105,7 +11142,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>368</v>
       </c>
@@ -11155,7 +11192,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -11205,7 +11242,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>369</v>
       </c>
@@ -11255,7 +11292,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>370</v>
       </c>
@@ -11305,7 +11342,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>371</v>
       </c>
@@ -11355,7 +11392,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>372</v>
       </c>
@@ -11405,7 +11442,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>373</v>
       </c>
@@ -11455,7 +11492,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>374</v>
       </c>
@@ -11505,7 +11542,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>375</v>
       </c>
@@ -11555,7 +11592,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>376</v>
       </c>
@@ -11605,7 +11642,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -11655,7 +11692,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -11705,7 +11742,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -11755,7 +11792,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -11805,7 +11842,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -11855,7 +11892,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -11905,7 +11942,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -11955,7 +11992,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -12005,7 +12042,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -12055,7 +12092,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -12105,7 +12142,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -12155,7 +12192,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -12205,7 +12242,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -12255,7 +12292,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -12305,7 +12342,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -12355,7 +12392,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>22</v>
       </c>
@@ -12405,7 +12442,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>388</v>
       </c>
@@ -12449,7 +12486,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>389</v>
       </c>
@@ -12493,7 +12530,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>390</v>
       </c>
@@ -12537,7 +12574,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>391</v>
       </c>
@@ -12581,7 +12618,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>392</v>
       </c>
@@ -12625,7 +12662,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>393</v>
       </c>
@@ -12669,7 +12706,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>394</v>
       </c>
@@ -12713,7 +12750,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>395</v>
       </c>
@@ -12757,7 +12794,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>396</v>
       </c>
@@ -12801,7 +12838,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>397</v>
       </c>
@@ -12845,7 +12882,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>398</v>
       </c>
@@ -12889,7 +12926,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>399</v>
       </c>
@@ -12933,7 +12970,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>400</v>
       </c>
@@ -12977,7 +13014,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>401</v>
       </c>
@@ -13021,7 +13058,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>402</v>
       </c>
@@ -13065,7 +13102,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>403</v>
       </c>
@@ -13109,7 +13146,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>404</v>
       </c>
@@ -13153,7 +13190,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>405</v>
       </c>
@@ -13197,7 +13234,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>406</v>
       </c>
@@ -13241,7 +13278,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>407</v>
       </c>
@@ -13285,7 +13322,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>408</v>
       </c>
@@ -13329,7 +13366,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>409</v>
       </c>
@@ -13373,7 +13410,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>410</v>
       </c>
@@ -13417,7 +13454,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>411</v>
       </c>
@@ -13461,7 +13498,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>412</v>
       </c>
@@ -13505,7 +13542,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>413</v>
       </c>
@@ -13549,7 +13586,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>414</v>
       </c>
@@ -13593,7 +13630,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>415</v>
       </c>
@@ -13637,7 +13674,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>416</v>
       </c>
@@ -13681,7 +13718,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>417</v>
       </c>
@@ -13725,7 +13762,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>418</v>
       </c>
@@ -13769,7 +13806,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>419</v>
       </c>
@@ -13813,7 +13850,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>420</v>
       </c>
@@ -13857,7 +13894,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>421</v>
       </c>
@@ -13901,7 +13938,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>422</v>
       </c>
@@ -13945,7 +13982,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>423</v>
       </c>
@@ -13989,7 +14026,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>424</v>
       </c>
@@ -14033,7 +14070,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>425</v>
       </c>
@@ -14077,7 +14114,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>426</v>
       </c>
@@ -14121,7 +14158,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>427</v>
       </c>
@@ -14165,7 +14202,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>428</v>
       </c>
@@ -14209,7 +14246,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>429</v>
       </c>
@@ -14253,7 +14290,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>430</v>
       </c>
@@ -14297,7 +14334,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>431</v>
       </c>
@@ -14341,7 +14378,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>432</v>
       </c>
@@ -14385,7 +14422,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>433</v>
       </c>
@@ -14429,7 +14466,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>434</v>
       </c>
@@ -14473,7 +14510,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>435</v>
       </c>
@@ -14517,7 +14554,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>436</v>
       </c>
@@ -14561,7 +14598,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>437</v>
       </c>
@@ -14605,7 +14642,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>438</v>
       </c>
@@ -14649,7 +14686,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>439</v>
       </c>
@@ -14693,7 +14730,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>440</v>
       </c>
@@ -14737,7 +14774,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>441</v>
       </c>
@@ -14781,7 +14818,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>442</v>
       </c>
@@ -14825,7 +14862,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>443</v>
       </c>
@@ -14869,7 +14906,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>444</v>
       </c>
@@ -14913,7 +14950,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>445</v>
       </c>
@@ -14957,7 +14994,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>446</v>
       </c>
@@ -15001,7 +15038,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>447</v>
       </c>
@@ -15045,7 +15082,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>448</v>
       </c>
@@ -15089,7 +15126,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>449</v>
       </c>
@@ -15133,7 +15170,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>450</v>
       </c>
@@ -15177,7 +15214,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>451</v>
       </c>
@@ -15221,7 +15258,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>452</v>
       </c>
@@ -15265,7 +15302,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>453</v>
       </c>
@@ -15309,7 +15346,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>454</v>
       </c>
@@ -15353,7 +15390,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>455</v>
       </c>
@@ -15397,7 +15434,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>456</v>
       </c>
@@ -15441,7 +15478,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>457</v>
       </c>
@@ -15485,7 +15522,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>458</v>
       </c>
@@ -15529,7 +15566,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>459</v>
       </c>
@@ -15573,7 +15610,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>460</v>
       </c>
@@ -15617,7 +15654,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>461</v>
       </c>
@@ -15661,7 +15698,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>462</v>
       </c>
@@ -15705,7 +15742,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>463</v>
       </c>
@@ -15749,7 +15786,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>464</v>
       </c>
@@ -15793,7 +15830,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>465</v>
       </c>
@@ -15837,7 +15874,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>466</v>
       </c>
@@ -15881,7 +15918,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>467</v>
       </c>
@@ -15925,7 +15962,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>468</v>
       </c>
@@ -15969,7 +16006,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>469</v>
       </c>
@@ -16013,7 +16050,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>470</v>
       </c>
@@ -16057,7 +16094,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>471</v>
       </c>
@@ -16101,7 +16138,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>472</v>
       </c>
@@ -16145,7 +16182,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>473</v>
       </c>
@@ -16189,7 +16226,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>474</v>
       </c>
@@ -16233,7 +16270,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>475</v>
       </c>
@@ -16277,7 +16314,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>476</v>
       </c>
@@ -16321,7 +16358,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>477</v>
       </c>
@@ -16371,7 +16408,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>478</v>
       </c>
@@ -16421,7 +16458,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>479</v>
       </c>
@@ -16471,7 +16508,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>480</v>
       </c>
@@ -16565,7 +16602,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>482</v>
       </c>
@@ -16609,7 +16646,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>483</v>
       </c>
@@ -16653,7 +16690,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>484</v>
       </c>
@@ -16697,7 +16734,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>485</v>
       </c>
@@ -16741,7 +16778,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>486</v>
       </c>
@@ -16785,7 +16822,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>487</v>
       </c>
@@ -16829,7 +16866,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>488</v>
       </c>
@@ -16873,7 +16910,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>489</v>
       </c>
@@ -16917,7 +16954,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>490</v>
       </c>
@@ -16961,7 +16998,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>491</v>
       </c>
@@ -17005,7 +17042,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>492</v>
       </c>
@@ -17049,7 +17086,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>493</v>
       </c>
@@ -17093,7 +17130,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>494</v>
       </c>
@@ -17137,7 +17174,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>495</v>
       </c>
@@ -17181,7 +17218,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>496</v>
       </c>
@@ -17225,7 +17262,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>497</v>
       </c>
@@ -17269,7 +17306,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>498</v>
       </c>
@@ -17313,7 +17350,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>499</v>
       </c>
@@ -17357,7 +17394,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>500</v>
       </c>
@@ -17401,7 +17438,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>501</v>
       </c>
@@ -17445,7 +17482,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>502</v>
       </c>
@@ -17489,7 +17526,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>503</v>
       </c>
@@ -17533,7 +17570,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>504</v>
       </c>
@@ -17577,7 +17614,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>505</v>
       </c>
@@ -17621,7 +17658,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>506</v>
       </c>
@@ -17665,7 +17702,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>507</v>
       </c>
@@ -17709,7 +17746,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>508</v>
       </c>
@@ -17753,7 +17790,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>509</v>
       </c>
@@ -17797,7 +17834,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>510</v>
       </c>
@@ -17841,7 +17878,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>511</v>
       </c>
@@ -17885,7 +17922,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>512</v>
       </c>
@@ -17929,7 +17966,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>513</v>
       </c>
@@ -17979,7 +18016,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>514</v>
       </c>
@@ -18029,7 +18066,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>515</v>
       </c>
@@ -18079,7 +18116,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>516</v>
       </c>
@@ -18129,7 +18166,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>517</v>
       </c>
@@ -18179,7 +18216,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>518</v>
       </c>
@@ -18229,7 +18266,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>519</v>
       </c>
@@ -18279,7 +18316,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>520</v>
       </c>
@@ -18329,7 +18366,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>521</v>
       </c>
@@ -18373,7 +18410,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>522</v>
       </c>
@@ -18423,7 +18460,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>523</v>
       </c>
@@ -18467,7 +18504,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>524</v>
       </c>
@@ -18511,7 +18548,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>525</v>
       </c>
@@ -18555,7 +18592,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>526</v>
       </c>
@@ -18605,7 +18642,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>527</v>
       </c>
@@ -18649,7 +18686,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>528</v>
       </c>
@@ -18693,7 +18730,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>529</v>
       </c>
@@ -18737,7 +18774,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>530</v>
       </c>
@@ -18781,7 +18818,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>531</v>
       </c>
@@ -18825,7 +18862,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>532</v>
       </c>
@@ -18869,7 +18906,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>533</v>
       </c>
@@ -18913,7 +18950,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>534</v>
       </c>
@@ -18957,7 +18994,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>535</v>
       </c>
@@ -19001,7 +19038,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>536</v>
       </c>
@@ -19045,7 +19082,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>537</v>
       </c>
@@ -19089,7 +19126,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>538</v>
       </c>
@@ -19139,7 +19176,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>539</v>
       </c>
@@ -19189,7 +19226,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>540</v>
       </c>
@@ -19233,7 +19270,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>541</v>
       </c>
@@ -19283,7 +19320,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>542</v>
       </c>
@@ -19327,7 +19364,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>543</v>
       </c>
@@ -19377,7 +19414,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>544</v>
       </c>
@@ -19427,7 +19464,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>545</v>
       </c>
@@ -19471,7 +19508,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>546</v>
       </c>
@@ -19515,7 +19552,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>547</v>
       </c>
@@ -19559,7 +19596,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>548</v>
       </c>
@@ -19603,7 +19640,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>549</v>
       </c>
@@ -19647,7 +19684,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>550</v>
       </c>
@@ -19691,7 +19728,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>551</v>
       </c>
@@ -19735,7 +19772,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>552</v>
       </c>
@@ -19779,7 +19816,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>553</v>
       </c>
@@ -19823,7 +19860,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>554</v>
       </c>
@@ -19867,7 +19904,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>555</v>
       </c>
@@ -19911,7 +19948,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>556</v>
       </c>
@@ -19955,7 +19992,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>557</v>
       </c>
@@ -19999,7 +20036,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>558</v>
       </c>
@@ -20043,7 +20080,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>559</v>
       </c>
@@ -20093,7 +20130,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>560</v>
       </c>
@@ -20137,7 +20174,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>561</v>
       </c>
@@ -20187,7 +20224,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>562</v>
       </c>
@@ -20237,7 +20274,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>563</v>
       </c>
@@ -20281,7 +20318,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>564</v>
       </c>
@@ -20331,7 +20368,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>565</v>
       </c>
@@ -20376,7 +20413,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>566</v>
       </c>
@@ -20420,7 +20457,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>567</v>
       </c>
@@ -20470,7 +20507,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>568</v>
       </c>
@@ -20520,7 +20557,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>569</v>
       </c>
@@ -20564,7 +20601,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>570</v>
       </c>
@@ -20614,7 +20651,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>571</v>
       </c>
@@ -20664,7 +20701,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>572</v>
       </c>
@@ -20714,7 +20751,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>573</v>
       </c>
@@ -20758,7 +20795,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>574</v>
       </c>
@@ -20802,7 +20839,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>575</v>
       </c>
@@ -20846,7 +20883,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>576</v>
       </c>
@@ -20890,7 +20927,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>577</v>
       </c>
@@ -20934,7 +20971,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>578</v>
       </c>
@@ -20978,7 +21015,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>579</v>
       </c>
@@ -21022,7 +21059,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>580</v>
       </c>
@@ -21072,7 +21109,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>581</v>
       </c>
@@ -21122,7 +21159,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>582</v>
       </c>
@@ -21172,7 +21209,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>583</v>
       </c>
@@ -21222,7 +21259,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>584</v>
       </c>
@@ -21272,7 +21309,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>585</v>
       </c>
@@ -21322,7 +21359,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>586</v>
       </c>
@@ -21372,7 +21409,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>587</v>
       </c>
@@ -21422,7 +21459,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>588</v>
       </c>
@@ -21472,7 +21509,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>589</v>
       </c>
@@ -21522,7 +21559,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>590</v>
       </c>
@@ -21566,7 +21603,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>591</v>
       </c>
@@ -21616,7 +21653,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>592</v>
       </c>
@@ -21666,7 +21703,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>593</v>
       </c>
@@ -21716,7 +21753,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>594</v>
       </c>
@@ -21766,7 +21803,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="313" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>595</v>
       </c>
@@ -21816,7 +21853,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>596</v>
       </c>
@@ -21866,7 +21903,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>597</v>
       </c>
@@ -21916,7 +21953,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>598</v>
       </c>
@@ -21966,7 +22003,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>599</v>
       </c>
@@ -22016,7 +22053,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>600</v>
       </c>
@@ -22066,7 +22103,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>601</v>
       </c>
@@ -22110,7 +22147,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>602</v>
       </c>
@@ -22160,7 +22197,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>603</v>
       </c>
@@ -22204,7 +22241,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="322" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>604</v>
       </c>
@@ -22248,7 +22285,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>605</v>
       </c>
@@ -22292,7 +22329,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>606</v>
       </c>
@@ -22336,7 +22373,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>607</v>
       </c>
@@ -22386,7 +22423,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>608</v>
       </c>
@@ -22433,7 +22470,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>609</v>
       </c>
@@ -22477,7 +22514,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="328" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>610</v>
       </c>
@@ -22521,7 +22558,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>611</v>
       </c>
@@ -22565,7 +22602,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>612</v>
       </c>
@@ -22615,7 +22652,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>613</v>
       </c>
@@ -22659,7 +22696,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>614</v>
       </c>
@@ -22703,7 +22740,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>615</v>
       </c>
@@ -22747,7 +22784,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>616</v>
       </c>
@@ -22797,7 +22834,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>617</v>
       </c>
@@ -22847,7 +22884,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="336" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>618</v>
       </c>
@@ -22891,7 +22928,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>619</v>
       </c>
@@ -22935,7 +22972,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>620</v>
       </c>
@@ -22985,7 +23022,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>621</v>
       </c>
@@ -23035,7 +23072,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>622</v>
       </c>
@@ -23085,7 +23122,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>623</v>
       </c>
@@ -23135,7 +23172,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>624</v>
       </c>
@@ -23185,7 +23222,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>625</v>
       </c>
@@ -23235,7 +23272,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>626</v>
       </c>
@@ -23279,7 +23316,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="345" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>627</v>
       </c>
@@ -23323,7 +23360,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>628</v>
       </c>
@@ -23367,7 +23404,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>629</v>
       </c>
@@ -23417,7 +23454,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>630</v>
       </c>
@@ -23461,7 +23498,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>631</v>
       </c>
@@ -23511,7 +23548,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>632</v>
       </c>
@@ -23561,7 +23598,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>633</v>
       </c>
@@ -23611,7 +23648,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="352" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>634</v>
       </c>
@@ -23661,7 +23698,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>635</v>
       </c>
@@ -23711,7 +23748,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>636</v>
       </c>
@@ -23761,7 +23798,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>637</v>
       </c>
@@ -23811,7 +23848,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>638</v>
       </c>
@@ -23861,7 +23898,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>639</v>
       </c>
@@ -23905,7 +23942,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>640</v>
       </c>
@@ -23949,7 +23986,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>641</v>
       </c>
@@ -23993,7 +24030,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>642</v>
       </c>
@@ -24037,7 +24074,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>643</v>
       </c>
@@ -24081,7 +24118,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>644</v>
       </c>
@@ -24125,7 +24162,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>645</v>
       </c>
@@ -24169,7 +24206,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>646</v>
       </c>
@@ -24213,7 +24250,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>647</v>
       </c>
@@ -24257,7 +24294,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>648</v>
       </c>
@@ -24301,7 +24338,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>649</v>
       </c>
@@ -24345,7 +24382,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>650</v>
       </c>
@@ -24389,7 +24426,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>651</v>
       </c>
@@ -24433,7 +24470,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>652</v>
       </c>
@@ -24477,7 +24514,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>653</v>
       </c>
@@ -24521,7 +24558,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>654</v>
       </c>
@@ -24565,7 +24602,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>655</v>
       </c>
@@ -24609,7 +24646,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>656</v>
       </c>
@@ -24653,7 +24690,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>657</v>
       </c>
@@ -24703,7 +24740,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="12" t="s">
         <v>2000</v>
       </c>
@@ -24735,7 +24772,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="12" t="s">
         <v>2001</v>
       </c>
@@ -24767,7 +24804,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="12" t="s">
         <v>2002</v>
       </c>
@@ -24799,7 +24836,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="12" t="s">
         <v>2003</v>
       </c>
@@ -24831,7 +24868,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="12" t="s">
         <v>2004</v>
       </c>
@@ -24863,7 +24900,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="12" t="s">
         <v>2005</v>
       </c>
@@ -24899,7 +24936,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J375">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J375">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
